--- a/Models/results_df_Classes_1&2removed_LOO_10.xlsx
+++ b/Models/results_df_Classes_1&2removed_LOO_10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="168">
   <si>
     <t>y</t>
   </si>
@@ -106,7 +106,7 @@
     <t>(100, 308)</t>
   </si>
   <si>
-    <t>(100, 1)</t>
+    <t>(100, 10)</t>
   </si>
   <si>
     <t>(100, 176)</t>
@@ -121,172 +121,304 @@
     <t>permutation</t>
   </si>
   <si>
-    <t>['GaitJointBackFlexExtMax.degreesmean']</t>
-  </si>
-  <si>
-    <t>['TurnsAngledegreesmean']</t>
-  </si>
-  <si>
-    <t>['GaitJointBackRightLat.BendMax.degreesmean']</t>
-  </si>
-  <si>
-    <t>['Sex']</t>
-  </si>
-  <si>
-    <t>['AnticipatoryPosturalAdjustmentFirstStepRangeofMotiondegrees']</t>
-  </si>
-  <si>
-    <t>['GaitLumbarCoronalRangeofMotiondegreesmean']</t>
-  </si>
-  <si>
-    <t>['PosturalSwayAnglesSwayAreaRotationdegrees_C']</t>
-  </si>
-  <si>
-    <t>['GaitJointBackFlexExtMin.degreesmean']</t>
-  </si>
-  <si>
-    <t>['GaitUpperLimbArmSwingVelocityLdegreessmean']</t>
-  </si>
-  <si>
-    <t>['GaitLowerLimbStanceRGCTstd']</t>
-  </si>
-  <si>
-    <t>['GaitJointNeckRLLat.BendRangedegreesstd']</t>
-  </si>
-  <si>
-    <t>['GaitJointBackRLRotRangedegreesmean']</t>
-  </si>
-  <si>
-    <t>['PosturalSwayAccCentroidalFrequencyHz']</t>
-  </si>
-  <si>
-    <t>['PosturalSwayAccMeanVelocitySagittalms']</t>
-  </si>
-  <si>
-    <t>['PosturalSwayAccFrequencyDispersionAD_B']</t>
-  </si>
-  <si>
-    <t>['Durations']</t>
-  </si>
-  <si>
-    <t>['Heightcm']</t>
-  </si>
-  <si>
-    <t>['Age_A']</t>
-  </si>
-  <si>
-    <t>['PosturalSwayAnglesRMSSwaydegrees']</t>
-  </si>
-  <si>
-    <t>['Heightft']</t>
-  </si>
-  <si>
-    <t>['PosturalSwayAccCentroidalFrequencySagittalHz_A']</t>
-  </si>
-  <si>
-    <t>['GaitLowerLimbN#']</t>
-  </si>
-  <si>
-    <t>['WeightinKG']</t>
-  </si>
-  <si>
-    <t>['PosturalSwayAccMeanVelocityCoronalms_A']</t>
-  </si>
-  <si>
-    <t>['PosturalSwayAccMeanVelocityCoronalms_B']</t>
-  </si>
-  <si>
-    <t>['PosturalSwayAccJerkCoronalm2s5_B']</t>
-  </si>
-  <si>
-    <t>['PosturalSwayAccCentroidalFrequencySagittalHz_C']</t>
-  </si>
-  <si>
-    <t>['PosturalSwayAccRMSSwayCoronalms2_C']</t>
-  </si>
-  <si>
-    <t>[0.059999999999999984]</t>
-  </si>
-  <si>
-    <t>[0.32]</t>
-  </si>
-  <si>
-    <t>[0.24]</t>
-  </si>
-  <si>
-    <t>[0.0]</t>
-  </si>
-  <si>
-    <t>[0.1]</t>
-  </si>
-  <si>
-    <t>[0.16000000000000003]</t>
-  </si>
-  <si>
-    <t>[0.19999999999999998]</t>
-  </si>
-  <si>
-    <t>[0.3]</t>
-  </si>
-  <si>
-    <t>[0.04000000000000001]</t>
-  </si>
-  <si>
-    <t>[0.09999999999999998]</t>
-  </si>
-  <si>
-    <t>[0.26]</t>
-  </si>
-  <si>
-    <t>[0.15999999999999998]</t>
-  </si>
-  <si>
-    <t>[0.07999999999999999]</t>
-  </si>
-  <si>
-    <t>[0.08]</t>
-  </si>
-  <si>
-    <t>[0.48]</t>
-  </si>
-  <si>
-    <t>[0.11999999999999997]</t>
-  </si>
-  <si>
-    <t>[0.38]</t>
-  </si>
-  <si>
-    <t>[0.27999999999999997]</t>
-  </si>
-  <si>
-    <t>[0.06]</t>
-  </si>
-  <si>
-    <t>[0.33999999999999997]</t>
-  </si>
-  <si>
-    <t>[0.18]</t>
-  </si>
-  <si>
-    <t>[0.16]</t>
-  </si>
-  <si>
-    <t>[0.13999999999999996]</t>
-  </si>
-  <si>
-    <t>[0.2599999999999999]</t>
-  </si>
-  <si>
-    <t>[0.17999999999999997]</t>
-  </si>
-  <si>
-    <t>[0.25999999999999995]</t>
-  </si>
-  <si>
-    <t>[0.45999999999999996]</t>
-  </si>
-  <si>
-    <t>[0.039999999999999994]</t>
+    <t>['GaitJointBackFlexExtMax.degreesmean', 'Sex', 'PosturalSwayAcc95EllipseSwayAream2s4_A', 'PosturalSwayAcc95EllipseAxis2Radiusms2_A', 'PosturalSwayAcc95EllipseAxis1Radiusms2_A', 'PosturalSwayAnglesRMSSwaySagittaldegrees', 'PosturalSwayAnglesRMSSwayCoronaldegrees', 'PosturalSwayAnglesRMSSwaydegrees', 'PosturalSwayAnglesDurations', 'PosturalSwayAnglesSwayAreadegrees2']</t>
+  </si>
+  <si>
+    <t>['TurnsAngledegreesmean', 'AvgUpperArmswingvelocity', 'AsymmetryAvgToeoutangle', 'GaitUpperLimbArmSwingVelocityLdegreessmean', 'TurnsTurnVelocitydegreessstd', 'Heightcm', 'GaitUpperLimbArmSwingVelocityLdegreessstd', 'Sex', 'Asymmetrycircumdunction', 'GaitUpperLimbArmSwingVelocityRdegreessmean']</t>
+  </si>
+  <si>
+    <t>['GaitJointBackRightLat.BendMax.degreesmean', 'Asymmetrystepvariability', 'PosturalSwayAccFrequencyDispersionCoronalAD_A', 'GaitLowerLimbFootStrikeAngleLdegreesstd', 'GaitLowerLimbElevationatMidswingLcmmean', 'GaitUpperLimbArmRangeofMotionRdegreesmean', 'TurnsDurationsstd', 'PosturalSwayAcc95EllipseRotationms2_A', 'PosturalSwayAcc95EllipseAxis2Radiusms2_A', 'PosturalSwayAcc95EllipseAxis1Radiusms2_A']</t>
+  </si>
+  <si>
+    <t>['Sex', 'PosturalSwayAnglesSwayAreaRotationdegrees', 'PosturalSwayAcc95EllipseAxis2Radiusms2_A', 'PosturalSwayAcc95EllipseAxis1Radiusms2_A', 'PosturalSwayAnglesRMSSwaySagittaldegrees', 'PosturalSwayAnglesRMSSwayCoronaldegrees', 'PosturalSwayAnglesRMSSwaydegrees', 'PosturalSwayAnglesDurations', 'PosturalSwayAnglesSwayAreadegrees2', 'PosturalSwayAngles95EllipseAxis2Radiusdegrees']</t>
+  </si>
+  <si>
+    <t>['AnticipatoryPosturalAdjustmentFirstStepRangeofMotiondegrees', 'AvgUpperArmswingvelocity', 'AsymmetryterminaldoublelegsupportofGCT', 'Asymmetryupperarmswingvelocity', 'GaitJointNeckLeftLat.BendMax.degreesmean', 'TurnsTurnVelocitydegreessmean', 'Sex', 'AsymmetryupperarmROM', 'GaitUpperLimbArmSwingVelocityRdegreessstd', 'Asymmetrycircumdunction']</t>
+  </si>
+  <si>
+    <t>['GaitLumbarCoronalRangeofMotiondegreesmean', 'GaitJointBackRLRotRangedegreesmean', 'GaitUpperLimbArmSwingVelocityRdegreessstd', 'PosturalSwayAccMeanVelocitySagittalms', 'PosturalSwayAccMeanVelocityCoronalms', 'PosturalSwayAccMeanVelocityms', 'PosturalSwayAccJerkSagittalm2s5', 'PosturalSwayAccJerkCoronalm2s5', 'PosturalSwayAccJerkm2s5', 'Sex']</t>
+  </si>
+  <si>
+    <t>['PosturalSwayAnglesSwayAreaRotationdegrees_C', 'PosturalSwayAccJerkCoronalm2s5_C', 'GaitLowerLimbToeOffAngleRdegreesmean', 'PosturalSwayAcc95EllipseRotationms2_C', 'GaitJointBackFlexExtRangedegreesmean', 'PosturalSwayAccFrequencyDispersionSagittalAD', 'PosturalSwayAccFrequencyDispersionAD', 'PosturalSwayAccFrequencyDispersionAD_C', 'GaitLowerLimbToeOffAngleRdegreesstd', 'PosturalSwayAccCentroidalFrequencySagittalHz_B']</t>
+  </si>
+  <si>
+    <t>['GaitJointBackRightLat.BendMax.degreesmean', 'AnticipatoryPosturalAdjustmentFirstStepRangeofMotiondegrees', 'GaitJointBackRLRotRangedegreesmean', 'GaitLowerLimbFootStrikeAngleRdegreesstd', 'Sex', 'PosturalSwayAcc95EllipseAxis2Radiusms2_A', 'PosturalSwayAcc95EllipseAxis1Radiusms2_A', 'PosturalSwayAnglesRMSSwaySagittaldegrees', 'PosturalSwayAnglesRMSSwayCoronaldegrees', 'PosturalSwayAnglesRMSSwaydegrees']</t>
+  </si>
+  <si>
+    <t>['GaitJointBackFlexExtMin.degreesmean', 'GaitJointBackFlexExtMax.degreesmean', 'GaitUpperLimbArmRangeofMotionLdegreesmean', 'GaitJointNeckLeftRotMax.degreesstd', 'GaitJointBackLeftLat.BendMax.degreesmean', 'GaitLowerLimbStrideLengthLmstd', 'GaitLowerLimbStepDurationLsstd', 'GaitLowerLimbStepDurationRsmean', 'GaitLowerLimbStepDurationRsstd', 'Avgstepduration']</t>
+  </si>
+  <si>
+    <t>['GaitUpperLimbArmSwingVelocityLdegreessmean', 'AsymmetryAvgToeoutangle', 'Asymmetrycircumdunction', 'TurnsTurnVelocitydegreessstd', 'AvgUpperArmswingvelocity', 'GaitUpperLimbArmSwingVelocityLdegreessstd', 'TurnsAngledegreesmean', 'AnticipatoryPosturalAdjustmentFirstStepRangeofMotiondegrees', 'GaitLowerLimbToeOutAngleRdegreesmean', 'Heightcm']</t>
+  </si>
+  <si>
+    <t>['GaitJointBackRightLat.BendMax.degreesmean', 'Asymmetrystepvariability', 'GaitLowerLimbCircumductionRcmstd', 'GaitTrunkCoronalRangeofMotiondegreesstd', 'GaitLowerLimbFootStrikeAngleRdegreesstd', 'GaitJointNeckLeftRotMax.degreesmean', 'GaitLowerLimbElevationatMidswingLcmmean', 'AsymmetryswingofGCT', 'GaitLowerLimbToeOffAngleRdegreesstd', 'GaitLowerLimbStrideLengthRmstd']</t>
+  </si>
+  <si>
+    <t>['Sex', 'Age_A', 'AsymmetrystanceofGCT', 'GaitLowerLimbStepDurationLsmean', 'GaitLowerLimbStepDurationLsstd', 'GaitLowerLimbStepDurationRsmean', 'GaitLowerLimbStepDurationRsstd', 'Avgstepduration', 'Asymmetrystepduration', 'GaitLowerLimbStrideLengthLmmean']</t>
+  </si>
+  <si>
+    <t>['Sex', 'Asymmetrycircumdunction', 'GaitLowerLimbStepDurationLsstd', 'GaitLowerLimbStepDurationLsmean', 'AsymmetrystanceofGCT', 'GaitLowerLimbStanceRGCTstd', 'GaitLowerLimbStanceLGCTstd', 'AsymmetrySinglelegsupportofGCT', 'AvgSinglelegsupportofGCT', 'GaitLowerLimbSingleLimbSupportRGCTstd']</t>
+  </si>
+  <si>
+    <t>['GaitLowerLimbStanceRGCTstd', 'GaitLowerLimbCadenceLstepsminstd', 'GaitLowerLimbCadenceRstepsminstd', 'Cadenceasymmetry', 'GaitLowerLimbSwingRGCTstd', 'GaitLowerLimbGaitCycleDurationLsstd', 'GaitLowerLimbN#', 'Asymmetrystepvariability', 'GaitLowerLimbDoubleSupportRGCTstd', 'GaitJointBackFlexExtMin.degreesstd']</t>
+  </si>
+  <si>
+    <t>['GaitJointNeckRLLat.BendRangedegreesstd', 'GaitTrunkCoronalRangeofMotiondegreesstd', 'GaitLowerLimbFootStrikeAngleRdegreesstd', 'GaitUpperLimbArmSwingVelocityLdegreessmean', 'GaitLowerLimbGaitCycleDurationLsstd', 'GaitLowerLimbCadenceRstepsminstd', 'GaitLumbarSagittalRangeofMotiondegreesmean', 'GaitLowerLimbGaitSpeedLmsstd', 'GaitLowerLimbLateralStepVariabilityLcm', 'GaitLowerLimbLateralStepVariabilityRcm']</t>
+  </si>
+  <si>
+    <t>['GaitJointBackRLRotRangedegreesmean', 'GaitLowerLimbFootStrikeAngleLdegreesstd', 'GaitLowerLimbTerminalDoubleSupportLGCTstd', 'GaitLowerLimbStepDurationLsmean', 'GaitLowerLimbStepDurationLsstd', 'GaitLowerLimbStepDurationRsmean', 'GaitLowerLimbStepDurationRsstd', 'Avgstepduration', 'Asymmetrystepduration', 'GaitLowerLimbStrideLengthLmmean']</t>
+  </si>
+  <si>
+    <t>['PosturalSwayAccCentroidalFrequencyHz', 'PosturalSwayAccCentroidalFrequencyCoronalHz_C', 'PosturalSwayAccCentroidalFrequencySagittalHz_C', 'PosturalSwayAccPathLengthCoronalms2', 'PosturalSwayAccMeanVelocitySagittalms_B', 'PosturalSwayAccMeanVelocitySagittalms', 'PosturalSwayAccCentroidalFrequencySagittalHz_B', 'PosturalSwayAccMeanVelocityms_B', 'PosturalSwayAccJerkCoronalm2s5_B', 'PosturalSwayAccJerkm2s5_B']</t>
+  </si>
+  <si>
+    <t>['Sex', 'PosturalSwayAccRangems2_B', 'PosturalSwayAccPathLengthms2_B', 'PosturalSwayAccPathLengthCoronalms2_B', 'PosturalSwayAccPathLengthSagittalms2_B', 'PosturalSwayAccRMSSwayms2_B', 'PosturalSwayAccRMSSwayCoronalms2_B', 'PosturalSwayAccRMSSwaySagittalms2_B', 'PosturalSwayAccRangeCoronalms2_B', 'PosturalSwayAccMeanVelocityCoronalms_B']</t>
+  </si>
+  <si>
+    <t>['PosturalSwayAccMeanVelocitySagittalms', 'CalculatedBMI', 'PosturalSwayAnglesSwayAreaRadiusCoronaldegrees_B', 'PosturalSwayAccCentroidalFrequencySagittalHz_A', 'GaitLowerLimbN#', 'PosturalSwayAccJerkSagittalm2s5_C', 'PosturalSwayAccFrequencyDispersionCoronalAD_C', 'PosturalSwayAcc95EllipseAxis2Radiusms2_B', 'PosturalSwayAnglesSwayAreaRotationdegrees', 'PosturalSwayAccRangeCoronalms2_B']</t>
+  </si>
+  <si>
+    <t>['Sex', 'Heightcm', 'Durations', 'PosturalSwayAccRMSSwayCoronalms2_B', 'PosturalSwayAccMeanVelocityCoronalms_B', 'PosturalSwayAccMeanVelocitySagittalms_B', 'PosturalSwayAccPathLengthms2_B', 'PosturalSwayAccPathLengthCoronalms2_B', 'PosturalSwayAccPathLengthSagittalms2_B', 'PosturalSwayAccRMSSwayms2_B']</t>
+  </si>
+  <si>
+    <t>['PosturalSwayAccFrequencyDispersionAD_B', 'PosturalSwayAccPathLengthms2_B', 'WeightinKG', 'Heightcm', 'CalculatedBMI', 'PosturalSwayAccJerkm2s5_B', 'PosturalSwayAccFrequencyDispersionSagittalAD_A', 'PosturalSwayAccRMSSwaySagittalms2_A', 'PosturalSwayAccMeanVelocitySagittalms', 'PosturalSwayAccMeanVelocitySagittalms_C']</t>
+  </si>
+  <si>
+    <t>['PosturalSwayAccMeanVelocitySagittalms', 'CalculatedBMI', 'Sex', 'PosturalSwayAccRangems2_B', 'PosturalSwayAccPathLengthCoronalms2_B', 'PosturalSwayAccPathLengthSagittalms2_B', 'PosturalSwayAccRMSSwayms2_B', 'PosturalSwayAccRMSSwayCoronalms2_B', 'PosturalSwayAccRMSSwaySagittalms2_B', 'PosturalSwayAccRangeCoronalms2_B']</t>
+  </si>
+  <si>
+    <t>['PosturalSwayAccCentroidalFrequencyHz', 'PosturalSwayAccCentroidalFrequencySagittalHz', 'PosturalSwayAccPathLengthCoronalms2', 'WeightinKG', 'PosturalSwayAccMeanVelocityms', 'PosturalSwayAccMeanVelocitySagittalms', 'PosturalSwayAccRangems2', 'Heightft', 'PosturalSwayAccJerkCoronalm2s5', 'PosturalSwayAnglesSwayAreadegrees2']</t>
+  </si>
+  <si>
+    <t>['Durations', 'GaitLowerLimbN#', 'Age_A', 'WeightinKG', 'Sex', 'Heightcm', 'PosturalSwayAnglesDurations', 'CalculatedBMI', 'PosturalSwayAccRangeCoronalms2', 'PosturalSwayAccPathLengthSagittalms2']</t>
+  </si>
+  <si>
+    <t>['PosturalSwayAccMeanVelocitySagittalms', 'PosturalSwayAccMeanVelocityCoronalms', 'CalculatedBMI', 'PosturalSwayAccCentroidalFrequencySagittalHz', 'PosturalSwayAccCentroidalFrequencyCoronalHz', 'PosturalSwayAnglesRMSSwaySagittaldegrees', 'Heightft', 'WeightinKG', 'PosturalSwayAccFrequencyDispersionCoronalAD', 'PosturalSwayAccRMSSwaySagittalms2']</t>
+  </si>
+  <si>
+    <t>['Sex', 'PosturalSwayAccMeanVelocityms', 'PosturalSwayAccMeanVelocitySagittalms', 'PosturalSwayAccPathLengthms2', 'PosturalSwayAccPathLengthCoronalms2', 'PosturalSwayAccPathLengthSagittalms2', 'PosturalSwayAccRMSSwayms2', 'PosturalSwayAccRMSSwayCoronalms2', 'PosturalSwayAccRMSSwaySagittalms2', 'PosturalSwayAccRangems2']</t>
+  </si>
+  <si>
+    <t>['Heightcm', 'Durations', 'Sex', 'WeightinKG', 'Age_A', 'PosturalSwayAccPathLengthSagittalms2', 'PosturalSwayAccPathLengthms2', 'PosturalSwayAccJerkm2s5', 'PosturalSwayAccJerkSagittalm2s5', 'GaitLowerLimbN#']</t>
+  </si>
+  <si>
+    <t>['Age_A', 'PosturalSwayAnglesRMSSwaySagittaldegrees', 'WeightinKG', 'GaitLowerLimbN#', 'PosturalSwayAccRMSSwaySagittalms2', 'PosturalSwayAccRangeCoronalms2', 'PosturalSwayAccPathLengthms2', 'PosturalSwayAccPathLengthCoronalms2', 'PosturalSwayAccPathLengthSagittalms2', 'PosturalSwayAccRMSSwayms2']</t>
+  </si>
+  <si>
+    <t>['PosturalSwayAnglesRMSSwaydegrees', 'PosturalSwayAccRMSSwaySagittalms2', 'PosturalSwayAccRMSSwayCoronalms2', 'PosturalSwayAccMeanVelocityms', 'PosturalSwayAccJerkSagittalm2s5', 'PosturalSwayAnglesSwayAreadegrees2', 'PosturalSwayAnglesSwayAreaRotationdegrees', 'Durations', 'PosturalSwayAccFrequencyDispersionAD', 'PosturalSwayAnglesRMSSwayCoronaldegrees']</t>
+  </si>
+  <si>
+    <t>['Heightft', 'PosturalSwayAccMeanVelocitySagittalms', 'Sex', 'PosturalSwayAccRangeCoronalms2', 'PosturalSwayAccPathLengthms2', 'PosturalSwayAccPathLengthCoronalms2', 'PosturalSwayAccPathLengthSagittalms2', 'PosturalSwayAccRMSSwayms2', 'PosturalSwayAccRMSSwayCoronalms2', 'PosturalSwayAccRMSSwaySagittalms2']</t>
+  </si>
+  <si>
+    <t>['PosturalSwayAccCentroidalFrequencySagittalHz_A', 'Heightft', 'PosturalSwayAccFrequencyDispersionCoronalAD_A', 'GaitLowerLimbN#', 'PosturalSwayAccRangeCoronalms2_A', 'Sex', 'PosturalSwayAccPathLengthCoronalms2_A', 'PosturalSwayAccPathLengthSagittalms2_A', 'PosturalSwayAccRMSSwayms2_A', 'PosturalSwayAccRMSSwayCoronalms2_A']</t>
+  </si>
+  <si>
+    <t>['GaitLowerLimbN#', 'WeightinKG', 'Durations', 'Sex', 'Heightcm', 'CalculatedBMI', 'Age_A', 'PosturalSwayAnglesDurations_A', 'PosturalSwayAccPathLengthms2_A', 'PosturalSwayAccRangeCoronalms2_A']</t>
+  </si>
+  <si>
+    <t>['WeightinKG', 'PosturalSwayAccMeanVelocityCoronalms_A', 'PosturalSwayAccCentroidalFrequencyCoronalHz_A', 'PosturalSwayAccJerkSagittalm2s5_A', 'PosturalSwayAccMeanVelocitySagittalms_A', 'Heightft', 'PosturalSwayAccPathLengthms2_A', 'PosturalSwayAccRangems2_A', 'PosturalSwayAccPathLengthCoronalms2_A', 'PosturalSwayAccPathLengthSagittalms2_A']</t>
+  </si>
+  <si>
+    <t>['Sex', 'PosturalSwayAccMeanVelocityms_A', 'PosturalSwayAccMeanVelocitySagittalms_A', 'PosturalSwayAccPathLengthms2_A', 'PosturalSwayAccPathLengthCoronalms2_A', 'PosturalSwayAccPathLengthSagittalms2_A', 'PosturalSwayAccRMSSwayms2_A', 'PosturalSwayAccRMSSwayCoronalms2_A', 'PosturalSwayAccRMSSwaySagittalms2_A', 'PosturalSwayAccRangems2_A']</t>
+  </si>
+  <si>
+    <t>['Heightcm', 'Durations', 'Sex', 'Age_A', 'CalculatedBMI', 'PosturalSwayAnglesDurations_A', 'WeightinKG', 'GaitLowerLimbN#', 'PosturalSwayAccRangeCoronalms2_A', 'PosturalSwayAccPathLengthSagittalms2_A']</t>
+  </si>
+  <si>
+    <t>['Sex', 'Age_A', 'PosturalSwayAccMeanVelocityCoronalms_A', 'PosturalSwayAccPathLengthms2_A', 'PosturalSwayAccPathLengthCoronalms2_A', 'PosturalSwayAccPathLengthSagittalms2_A', 'PosturalSwayAccRMSSwayms2_A', 'PosturalSwayAccRMSSwayCoronalms2_A', 'PosturalSwayAccRMSSwaySagittalms2_A', 'PosturalSwayAccRangems2_A']</t>
+  </si>
+  <si>
+    <t>['PosturalSwayAccMeanVelocityCoronalms_A', 'PosturalSwayAccJerkSagittalm2s5_A', 'PosturalSwayAccPathLengthCoronalms2_A', 'PosturalSwayAccRangeCoronalms2_A', 'Heightcm', 'PosturalSwayAccRMSSwayCoronalms2_A', 'PosturalSwayAccJerkCoronalm2s5_A', 'PosturalSwayAccRangems2_A', 'CalculatedBMI', 'PosturalSwayAcc95EllipseAxis1Radiusms2_A']</t>
+  </si>
+  <si>
+    <t>['PosturalSwayAccCentroidalFrequencySagittalHz_A', 'CalculatedBMI', 'PosturalSwayAccMeanVelocitySagittalms_A', 'PosturalSwayAccRangeCoronalms2_A', 'PosturalSwayAccPathLengthms2_A', 'PosturalSwayAccPathLengthCoronalms2_A', 'PosturalSwayAccPathLengthSagittalms2_A', 'PosturalSwayAccRMSSwayms2_A', 'PosturalSwayAccRMSSwayCoronalms2_A', 'PosturalSwayAccRMSSwaySagittalms2_A']</t>
+  </si>
+  <si>
+    <t>['PosturalSwayAccMeanVelocityCoronalms_B', 'PosturalSwayAccCentroidalFrequencySagittalHz_B', 'WeightinKG', 'PosturalSwayAccMeanVelocityms_B', 'PosturalSwayAccJerkCoronalm2s5_B', 'PosturalSwayAccCentroidalFrequencyCoronalHz_B', 'PosturalSwayAngles95EllipseAxis2Radiusdegrees_B', 'PosturalSwayAccPathLengthSagittalms2_B', 'PosturalSwayAccJerkm2s5_B', 'PosturalSwayAccMeanVelocitySagittalms_B']</t>
+  </si>
+  <si>
+    <t>['Age_A', 'GaitLowerLimbN#', 'Durations', 'CalculatedBMI', 'WeightinKG', 'PosturalSwayAnglesDurations_B', 'Sex', 'PosturalSwayAccPathLengthCoronalms2_B', 'PosturalSwayAccPathLengthSagittalms2_B', 'Heightcm']</t>
+  </si>
+  <si>
+    <t>['WeightinKG', 'PosturalSwayAccCentroidalFrequencyCoronalHz_B', 'PosturalSwayAccCentroidalFrequencySagittalHz_B', 'Heightft', 'PosturalSwayAcc95EllipseRotationms2_B', 'Age_A', 'CalculatedBMI', 'Sex', 'PosturalSwayAccRangeSagittalms2_B', 'PosturalSwayAccPathLengthSagittalms2_B']</t>
+  </si>
+  <si>
+    <t>['Sex', 'PosturalSwayAccMeanVelocityms_B', 'PosturalSwayAccMeanVelocitySagittalms_B', 'PosturalSwayAccPathLengthms2_B', 'PosturalSwayAccPathLengthCoronalms2_B', 'PosturalSwayAccPathLengthSagittalms2_B', 'PosturalSwayAccRMSSwayms2_B', 'PosturalSwayAccRMSSwayCoronalms2_B', 'PosturalSwayAccRMSSwaySagittalms2_B', 'PosturalSwayAccRangems2_B']</t>
+  </si>
+  <si>
+    <t>['Heightcm', 'Durations', 'Sex', 'Age_A', 'GaitLowerLimbN#', 'PosturalSwayAnglesDurations_B', 'WeightinKG', 'PosturalSwayAccRangeCoronalms2_B', 'PosturalSwayAccPathLengthCoronalms2_B', 'PosturalSwayAccPathLengthSagittalms2_B']</t>
+  </si>
+  <si>
+    <t>['WeightinKG', 'CalculatedBMI', 'Age_A', 'Heightcm', 'PosturalSwayAccFrequencyDispersionSagittalAD_B', 'PosturalSwayAccFrequencyDispersionAD_B', 'PosturalSwayAnglesRMSSwaySagittaldegrees_B', 'PosturalSwayAngles95EllipseAxis2Radiusdegrees_B', 'PosturalSwayAccRMSSwaySagittalms2_B', 'PosturalSwayAcc95EllipseSwayAream2s4_B']</t>
+  </si>
+  <si>
+    <t>['PosturalSwayAccJerkCoronalm2s5_B', 'Sex', 'PosturalSwayAccRMSSwayms2_B', 'PosturalSwayAccRMSSwaySagittalms2_B', 'PosturalSwayAccRangeSagittalms2_B', 'PosturalSwayAccJerkm2s5_B', 'PosturalSwayAcc95EllipseRotationms2_B', 'PosturalSwayAccPathLengthSagittalms2_B', 'PosturalSwayAccPathLengthms2_B', 'PosturalSwayAnglesDurations_B']</t>
+  </si>
+  <si>
+    <t>['WeightinKG', 'CalculatedBMI', 'Heightft', 'Sex', 'PosturalSwayAccRangeCoronalms2_B', 'PosturalSwayAccPathLengthms2_B', 'PosturalSwayAccPathLengthCoronalms2_B', 'PosturalSwayAccPathLengthSagittalms2_B', 'PosturalSwayAccRMSSwayms2_B', 'PosturalSwayAccRMSSwayCoronalms2_B']</t>
+  </si>
+  <si>
+    <t>['PosturalSwayAccCentroidalFrequencySagittalHz_C', 'Heightft', 'PosturalSwayAccMeanVelocitySagittalms_C', 'PosturalSwayAccCentroidalFrequencyHz_C', 'PosturalSwayAccCentroidalFrequencyCoronalHz_C', 'PosturalSwayAcc95EllipseSwayAream2s4_C', 'PosturalSwayAccMeanVelocityCoronalms_C', 'PosturalSwayAccMeanVelocityms_C', 'PosturalSwayAccJerkCoronalm2s5_C', 'PosturalSwayAccRangeSagittalms2_C']</t>
+  </si>
+  <si>
+    <t>['Durations', 'GaitLowerLimbN#', 'Age_A', 'Sex', 'WeightinKG', 'CalculatedBMI', 'PosturalSwayAnglesDurations_C', 'PosturalSwayAccJerkm2s5_C', 'PosturalSwayAccPathLengthms2_C', 'PosturalSwayAccJerkSagittalm2s5_C']</t>
+  </si>
+  <si>
+    <t>['WeightinKG', 'Sex', 'PosturalSwayAccFrequencyDispersionCoronalAD_C', 'PosturalSwayAccCentroidalFrequencyCoronalHz_C', 'Heightcm', 'CalculatedBMI', 'GaitLowerLimbN#', 'Age_A', 'PosturalSwayAccRangeSagittalms2_C', 'PosturalSwayAccRangeCoronalms2_C']</t>
+  </si>
+  <si>
+    <t>['Sex', 'PosturalSwayAccMeanVelocityms_C', 'PosturalSwayAccMeanVelocitySagittalms_C', 'PosturalSwayAccPathLengthms2_C', 'PosturalSwayAccPathLengthCoronalms2_C', 'PosturalSwayAccPathLengthSagittalms2_C', 'PosturalSwayAccRMSSwayms2_C', 'PosturalSwayAccRMSSwayCoronalms2_C', 'PosturalSwayAccRMSSwaySagittalms2_C', 'PosturalSwayAccRangems2_C']</t>
+  </si>
+  <si>
+    <t>['Sex', 'Heightcm', 'Durations', 'PosturalSwayAccRangeSagittalms2_C', 'PosturalSwayAccMeanVelocitySagittalms_C', 'PosturalSwayAccPathLengthCoronalms2_C', 'PosturalSwayAccRMSSwayms2_C', 'PosturalSwayAccRMSSwayCoronalms2_C', 'PosturalSwayAccRMSSwaySagittalms2_C', 'PosturalSwayAccRangems2_C']</t>
+  </si>
+  <si>
+    <t>['Sex', 'PosturalSwayAccRMSSwaySagittalms2_C', 'PosturalSwayAccMeanVelocityCoronalms_C', 'PosturalSwayAccMeanVelocitySagittalms_C', 'PosturalSwayAccPathLengthms2_C', 'PosturalSwayAccPathLengthCoronalms2_C', 'PosturalSwayAccPathLengthSagittalms2_C', 'PosturalSwayAccRMSSwayms2_C', 'PosturalSwayAccRMSSwayCoronalms2_C', 'PosturalSwayAccRangems2_C']</t>
+  </si>
+  <si>
+    <t>['PosturalSwayAccRMSSwayCoronalms2_C', 'PosturalSwayAnglesSwayAreaRadiusCoronaldegrees_C', 'PosturalSwayAccRMSSwaySagittalms2_C', 'PosturalSwayAccPathLengthms2_C', 'PosturalSwayAccJerkm2s5_C', 'PosturalSwayAccPathLengthSagittalms2_C', 'PosturalSwayAcc95EllipseSwayAream2s4_C', 'PosturalSwayAngles95EllipseAxis2Radiusdegrees_C', 'PosturalSwayAccPathLengthCoronalms2_C', 'PosturalSwayAccCentroidalFrequencySagittalHz_C']</t>
+  </si>
+  <si>
+    <t>['PosturalSwayAccCentroidalFrequencySagittalHz_C', 'Sex', 'PosturalSwayAccRangems2_C', 'PosturalSwayAccMeanVelocitySagittalms_C', 'PosturalSwayAccPathLengthms2_C', 'PosturalSwayAccPathLengthCoronalms2_C', 'PosturalSwayAccPathLengthSagittalms2_C', 'PosturalSwayAccRMSSwayms2_C', 'PosturalSwayAccRMSSwayCoronalms2_C', 'PosturalSwayAccRMSSwaySagittalms2_C']</t>
+  </si>
+  <si>
+    <t>[0.059999999999999984, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
+  </si>
+  <si>
+    <t>[0.32, 0.3, 0.28, 0.27999999999999997, 0.26, 0.26, 0.19999999999999998, 0.19999999999999998, 0.18, 0.11999999999999997]</t>
+  </si>
+  <si>
+    <t>[0.24, 0.11999999999999997, 0.09999999999999998, 0.07999999999999999, 0.039999999999999994, 0.039999999999999994, 0.039999999999999994, 0.0, 0.0, 0.0]</t>
+  </si>
+  <si>
+    <t>[0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
+  </si>
+  <si>
+    <t>[0.1, 0.06000000000000001, 0.06000000000000001, 0.06000000000000001, 0.06000000000000001, 0.040000000000000015, 0.040000000000000015, 0.04, 0.04, 0.04]</t>
+  </si>
+  <si>
+    <t>[0.059999999999999984, 0.059999999999999984, 0.019999999999999997, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
+  </si>
+  <si>
+    <t>[0.16000000000000003, 0.16000000000000003, 0.14000000000000004, 0.14, 0.1, 0.1, 0.1, 0.1, 0.1, 0.1]</t>
+  </si>
+  <si>
+    <t>[0.19999999999999998, 0.17999999999999997, 0.15999999999999998, 0.07999999999999999, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
+  </si>
+  <si>
+    <t>[0.059999999999999984, 0.059999999999999984, 0.039999999999999994, 0.019999999999999997, 0.019999999999999997, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
+  </si>
+  <si>
+    <t>[0.32, 0.24, 0.24, 0.24, 0.24, 0.19999999999999998, 0.19999999999999998, 0.18, 0.13999999999999999, 0.13999999999999996]</t>
+  </si>
+  <si>
+    <t>[0.3, 0.26, 0.11999999999999997, 0.09999999999999998, 0.07999999999999999, 0.059999999999999984, 0.039999999999999994, 0.039999999999999994, 0.0, 0.0]</t>
+  </si>
+  <si>
+    <t>[0.04000000000000001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
+  </si>
+  <si>
+    <t>[0.09999999999999998, 0.09999999999999998, 0.09999999999999998, 0.09999999999999998, 0.09999999999999998, 0.09999999999999998, 0.07999999999999999, 0.07999999999999999, 0.07999999999999999, 0.07999999999999999]</t>
+  </si>
+  <si>
+    <t>[0.26, 0.15999999999999998, 0.13999999999999996, 0.12, 0.11999999999999997, 0.09999999999999998, 0.09999999999999998, 0.09999999999999998, 0.09999999999999998, 0.09999999999999998]</t>
+  </si>
+  <si>
+    <t>[0.15999999999999998, 0.07999999999999999, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
+  </si>
+  <si>
+    <t>[0.07999999999999999, 0.07999999999999999, 0.07999999999999999, 0.07999999999999999, 0.07999999999999999, 0.059999999999999984, 0.059999999999999984, 0.059999999999999984, 0.059999999999999984, 0.059999999999999984]</t>
+  </si>
+  <si>
+    <t>[0.3, 0.25999999999999995, 0.18, 0.17999999999999997, 0.13999999999999996, 0.09999999999999998, 0.09999999999999998, 0.07999999999999999, 0.059999999999999984, 0.0]</t>
+  </si>
+  <si>
+    <t>[0.08, 0.08, 0.06000000000000001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
+  </si>
+  <si>
+    <t>[0.48, 0.45999999999999996, 0.44000000000000006, 0.42000000000000004, 0.42000000000000004, 0.42000000000000004, 0.42000000000000004, 0.4, 0.4, 0.4]</t>
+  </si>
+  <si>
+    <t>[0.11999999999999997, 0.07999999999999999, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
+  </si>
+  <si>
+    <t>[0.07999999999999999, 0.07999999999999999, 0.07999999999999999, 0.07999999999999999, 0.059999999999999984, 0.059999999999999984, 0.019999999999999997, 0.019999999999999997, 0.019999999999999997, 0.0]</t>
+  </si>
+  <si>
+    <t>[0.38, 0.36, 0.27999999999999997, 0.25999999999999995, 0.23999999999999994, 0.18, 0.15999999999999998, 0.13999999999999996, 0.0, 0.0]</t>
+  </si>
+  <si>
+    <t>[0.27999999999999997, 0.17999999999999997, 0.15999999999999998, 0.09999999999999998, 0.09999999999999998, 0.09999999999999998, 0.09999999999999998, 0.07999999999999999, 0.059999999999999984, 0.059999999999999984]</t>
+  </si>
+  <si>
+    <t>[0.26, 0.26, 0.19999999999999996, 0.11999999999999997, 0.11999999999999997, 0.09999999999999998, 0.09999999999999998, 0.059999999999999984, 0.059999999999999984, 0.059999999999999984]</t>
+  </si>
+  <si>
+    <t>[0.07999999999999999, 0.059999999999999984, 0.039999999999999994, 0.039999999999999994, 0.019999999999999997, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
+  </si>
+  <si>
+    <t>[0.06, 0.06, 0.06, 0.020000000000000007, 0.019999999999999997, 0.019999999999999997, 0.019999999999999997, 1.1102230246251566e-17, 0.0, 0.0]</t>
+  </si>
+  <si>
+    <t>[0.059999999999999984, 0.059999999999999984, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
+  </si>
+  <si>
+    <t>[0.07999999999999999, 0.059999999999999984, 0.059999999999999984, 0.039999999999999994, 0.019999999999999997, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
+  </si>
+  <si>
+    <t>[0.33999999999999997, 0.27999999999999997, 0.21999999999999997, 0.19999999999999998, 0.15999999999999998, 0.13999999999999996, 0.09999999999999998, 0.09999999999999998, 0.019999999999999997, 0.0]</t>
+  </si>
+  <si>
+    <t>[0.3, 0.19999999999999996, 0.13999999999999996, 0.11999999999999997, 0.11999999999999997, 0.09999999999999998, 0.07999999999999999, 0.0, 0.0, 0.0]</t>
+  </si>
+  <si>
+    <t>[0.18, 0.16, 0.15999999999999998, 0.08, 0.06000000000000001, 0.06000000000000001, 0.04, 0.04, 0.0, 0.0]</t>
+  </si>
+  <si>
+    <t>[0.16, 0.10000000000000002, 0.09999999999999999, 0.07999999999999999, 0.07999999999999999, 0.07999999999999999, 0.06, 0.06, 0.06, 0.06]</t>
+  </si>
+  <si>
+    <t>[0.07999999999999999, 0.039999999999999994, 0.019999999999999997, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
+  </si>
+  <si>
+    <t>[0.13999999999999996, 0.07999999999999999, 0.07999999999999999, 0.07999999999999999, 0.059999999999999984, 0.039999999999999994, 0.039999999999999994, 0.039999999999999994, 0.039999999999999994, 0.039999999999999994]</t>
+  </si>
+  <si>
+    <t>[0.27999999999999997, 0.26, 0.24, 0.22000000000000003, 0.2, 0.18, 0.15999999999999998, 0.09999999999999999, 0.07999999999999999, 0.059999999999999984]</t>
+  </si>
+  <si>
+    <t>[0.26, 0.22000000000000003, 0.15999999999999998, 0.09999999999999998, 0.07999999999999999, 0.059999999999999984, 0.039999999999999994, 0.0, 0.0, 0.0]</t>
+  </si>
+  <si>
+    <t>[0.18, 0.18, 0.15999999999999998, 0.04, 0.04, 0.04, 0.02, 0.0, 0.0, 0.0]</t>
+  </si>
+  <si>
+    <t>[0.07999999999999999, 0.07999999999999999, 0.059999999999999984, 0.059999999999999984, 0.059999999999999984, 0.039999999999999994, 0.019999999999999997, 0.019999999999999997, 0.019999999999999997, 0.019999999999999997]</t>
+  </si>
+  <si>
+    <t>[0.2599999999999999, 0.23999999999999994, 0.23999999999999994, 0.23999999999999994, 0.23999999999999994, 0.21999999999999997, 0.21999999999999992, 0.21999999999999992, 0.21999999999999992, 0.19999999999999998]</t>
+  </si>
+  <si>
+    <t>[0.18, 0.07999999999999999, 0.019999999999999997, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
+  </si>
+  <si>
+    <t>[0.17999999999999997, 0.07999999999999999, 0.07999999999999999, 0.07999999999999999, 0.059999999999999984, 0.059999999999999984, 0.059999999999999984, 0.059999999999999984, 0.059999999999999984, 0.059999999999999984]</t>
+  </si>
+  <si>
+    <t>[0.25999999999999995, 0.24, 0.2, 0.15999999999999998, 0.13999999999999999, 0.12, 0.07999999999999999, 0.059999999999999984, 0.059999999999999984, 0.059999999999999984]</t>
+  </si>
+  <si>
+    <t>[0.45999999999999996, 0.15999999999999998, 0.13999999999999996, 0.13999999999999996, 0.09999999999999998, 0.09999999999999998, 0.09999999999999998, 0.09999999999999998, 0.09999999999999998, 0.0]</t>
+  </si>
+  <si>
+    <t>[0.08, 0.08, 0.08, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
+  </si>
+  <si>
+    <t>[0.07999999999999999, 0.06, 0.059999999999999984, 0.059999999999999984, 0.059999999999999984, 0.04, 0.04, 0.039999999999999994, 0.039999999999999994, 0.020000000000000007]</t>
+  </si>
+  <si>
+    <t>[0.039999999999999994, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
   </si>
   <si>
     <t>RandomForestClassifier(random_state=33)</t>
@@ -320,67 +452,73 @@
     <t>(0.7087740590102375, 0.8712259409897626)</t>
   </si>
   <si>
+    <t>(0.6860770311790257, 0.8539229688209743)</t>
+  </si>
+  <si>
+    <t>(0.5977689929661693, 0.7822310070338306)</t>
+  </si>
+  <si>
+    <t>(0.7202314772022168, 0.8797685227977833)</t>
+  </si>
+  <si>
+    <t>(0.5127322702903188, 0.7072677297096812)</t>
+  </si>
+  <si>
+    <t>(0.7317668408060122, 0.8882331591939879)</t>
+  </si>
+  <si>
+    <t>(0.6525269857711425, 0.8274730142288574)</t>
+  </si>
+  <si>
+    <t>(0.663648041043452, 0.836351958956548)</t>
+  </si>
+  <si>
+    <t>(0.5232036009440236, 0.7167963990559764)</t>
+  </si>
+  <si>
+    <t>(0.47127134651887564, 0.6687286534811243)</t>
+  </si>
+  <si>
+    <t>(0.6086136765510869, 0.791386323448913)</t>
+  </si>
+  <si>
+    <t>(0.7668909412408695, 0.9131090587591304)</t>
+  </si>
+  <si>
     <t>(0.6748305240039125, 0.8451694759960875)</t>
   </si>
   <si>
-    <t>(0.5977689929661693, 0.7822310070338306)</t>
+    <t>(0.5442777726426602, 0.7357222273573398)</t>
+  </si>
+  <si>
+    <t>(0.5548820988300915, 0.7451179011699085)</t>
   </si>
   <si>
     <t>(0.6973904607296008, 0.8626095392703993)</t>
   </si>
   <si>
-    <t>(0.5127322702903188, 0.7072677297096812)</t>
-  </si>
-  <si>
-    <t>(0.6525269857711425, 0.8274730142288574)</t>
-  </si>
-  <si>
-    <t>(0.7202314772022168, 0.8797685227977833)</t>
-  </si>
-  <si>
-    <t>(0.5232036009440236, 0.7167963990559764)</t>
-  </si>
-  <si>
-    <t>(0.47127134651887564, 0.6687286534811243)</t>
+    <t>(0.6414650247111697, 0.8185349752888302)</t>
+  </si>
+  <si>
+    <t>(0.6195101784894703, 0.8004898215105296)</t>
+  </si>
+  <si>
+    <t>(0.6304600552324886, 0.8095399447675113)</t>
   </si>
   <si>
     <t>(0.5655323776939951, 0.754467622306005)</t>
   </si>
   <si>
-    <t>(0.6086136765510869, 0.791386323448913)</t>
-  </si>
-  <si>
-    <t>(0.5442777726426602, 0.7357222273573398)</t>
-  </si>
-  <si>
-    <t>(0.5548820988300915, 0.7451179011699085)</t>
+    <t>(0.5337185338396045, 0.7262814661603955)</t>
   </si>
   <si>
     <t>(0.5869747161686512, 0.7730252838313489)</t>
   </si>
   <si>
-    <t>(0.663648041043452, 0.836351958956548)</t>
-  </si>
-  <si>
-    <t>(0.6860770311790257, 0.8539229688209743)</t>
-  </si>
-  <si>
-    <t>(0.6195101784894703, 0.8004898215105296)</t>
-  </si>
-  <si>
-    <t>(0.6304600552324886, 0.8095399447675113)</t>
-  </si>
-  <si>
-    <t>(0.5337185338396045, 0.7262814661603955)</t>
-  </si>
-  <si>
     <t>(0.5762295652468495, 0.7637704347531505)</t>
   </si>
   <si>
     <t>(0.46100986648567294, 0.6589901335143272)</t>
-  </si>
-  <si>
-    <t>(0.6414650247111697, 0.8185349752888302)</t>
   </si>
 </sst>
 </file>
@@ -826,16 +964,16 @@
         <v>35</v>
       </c>
       <c r="F2" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="G2" t="s">
-        <v>91</v>
+        <v>135</v>
       </c>
       <c r="H2">
         <v>0.79</v>
       </c>
       <c r="I2" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -885,16 +1023,16 @@
         <v>35</v>
       </c>
       <c r="F3" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="G3" t="s">
-        <v>91</v>
+        <v>135</v>
       </c>
       <c r="H3">
-        <v>0.76</v>
+        <v>0.77</v>
       </c>
       <c r="I3" t="s">
-        <v>101</v>
+        <v>145</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -912,19 +1050,19 @@
         <v>1</v>
       </c>
       <c r="O3">
-        <v>0.76</v>
+        <v>0.77</v>
       </c>
       <c r="Q3">
-        <v>0.76</v>
+        <v>0.77</v>
       </c>
       <c r="R3">
-        <v>0.76</v>
+        <v>0.77</v>
       </c>
       <c r="S3">
-        <v>-0.00025</v>
+        <v>-0.0365</v>
       </c>
       <c r="U3">
-        <v>-0.0869565217391306</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -944,16 +1082,16 @@
         <v>36</v>
       </c>
       <c r="F4" t="s">
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="G4" t="s">
-        <v>92</v>
+        <v>136</v>
       </c>
       <c r="H4">
         <v>0.6899999999999999</v>
       </c>
       <c r="I4" t="s">
-        <v>102</v>
+        <v>146</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -1003,16 +1141,16 @@
         <v>36</v>
       </c>
       <c r="F5" t="s">
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="G5" t="s">
-        <v>92</v>
+        <v>136</v>
       </c>
       <c r="H5">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="I5" t="s">
-        <v>103</v>
+        <v>147</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -1030,16 +1168,16 @@
         <v>1</v>
       </c>
       <c r="O5">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="Q5">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="R5">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="S5">
-        <v>-0.03364602318369013</v>
+        <v>-0.03520268460671257</v>
       </c>
       <c r="U5">
         <v>0</v>
@@ -1062,16 +1200,16 @@
         <v>37</v>
       </c>
       <c r="F6" t="s">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="G6" t="s">
-        <v>93</v>
+        <v>137</v>
       </c>
       <c r="H6">
         <v>0.61</v>
       </c>
       <c r="I6" t="s">
-        <v>104</v>
+        <v>148</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -1121,22 +1259,22 @@
         <v>37</v>
       </c>
       <c r="F7" t="s">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="G7" t="s">
-        <v>93</v>
+        <v>137</v>
       </c>
       <c r="H7">
-        <v>0.74</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="I7" t="s">
-        <v>105</v>
+        <v>149</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7">
         <v>1</v>
@@ -1148,19 +1286,19 @@
         <v>1</v>
       </c>
       <c r="O7">
-        <v>0.74</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="Q7">
-        <v>0.74</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="R7">
-        <v>0.74</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="U7">
-        <v>0.09090909090909094</v>
+        <v>0.1666666666666666</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -1180,16 +1318,16 @@
         <v>38</v>
       </c>
       <c r="F8" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="G8" t="s">
-        <v>94</v>
+        <v>138</v>
       </c>
       <c r="H8">
         <v>0.8</v>
       </c>
       <c r="I8" t="s">
-        <v>106</v>
+        <v>147</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -1216,7 +1354,7 @@
         <v>0.8</v>
       </c>
       <c r="S8">
-        <v>-0.04229273447176077</v>
+        <v>-0.04260698909881193</v>
       </c>
       <c r="U8">
         <v>0</v>
@@ -1239,16 +1377,16 @@
         <v>38</v>
       </c>
       <c r="F9" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="G9" t="s">
-        <v>94</v>
+        <v>138</v>
       </c>
       <c r="H9">
         <v>0.8</v>
       </c>
       <c r="I9" t="s">
-        <v>106</v>
+        <v>147</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -1275,7 +1413,7 @@
         <v>0.8</v>
       </c>
       <c r="S9">
-        <v>-0.04108296812375451</v>
+        <v>-0.04100788722003573</v>
       </c>
       <c r="U9">
         <v>0</v>
@@ -1298,16 +1436,16 @@
         <v>39</v>
       </c>
       <c r="F10" t="s">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="G10" t="s">
-        <v>95</v>
+        <v>139</v>
       </c>
       <c r="H10">
         <v>0.74</v>
       </c>
       <c r="I10" t="s">
-        <v>105</v>
+        <v>150</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1357,22 +1495,22 @@
         <v>39</v>
       </c>
       <c r="F11" t="s">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="G11" t="s">
-        <v>95</v>
+        <v>139</v>
       </c>
       <c r="H11">
-        <v>0.79</v>
+        <v>0.75</v>
       </c>
       <c r="I11" t="s">
-        <v>100</v>
+        <v>151</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="L11">
         <v>1</v>
@@ -1384,19 +1522,19 @@
         <v>1</v>
       </c>
       <c r="O11">
-        <v>0.79</v>
+        <v>0.75</v>
       </c>
       <c r="Q11">
-        <v>0.79</v>
+        <v>0.75</v>
       </c>
       <c r="R11">
-        <v>0.79</v>
+        <v>0.75</v>
       </c>
       <c r="S11">
         <v>-0.04000000000000001</v>
       </c>
       <c r="U11">
-        <v>0</v>
+        <v>-0.1904761904761905</v>
       </c>
     </row>
     <row r="12" spans="1:21">
@@ -1416,16 +1554,16 @@
         <v>40</v>
       </c>
       <c r="F12" t="s">
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="G12" t="s">
-        <v>96</v>
+        <v>140</v>
       </c>
       <c r="H12">
         <v>0.62</v>
       </c>
       <c r="I12" t="s">
-        <v>107</v>
+        <v>152</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -1475,22 +1613,22 @@
         <v>40</v>
       </c>
       <c r="F13" t="s">
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="G13" t="s">
-        <v>96</v>
+        <v>140</v>
       </c>
       <c r="H13">
-        <v>0.8</v>
+        <v>0.74</v>
       </c>
       <c r="I13" t="s">
-        <v>106</v>
+        <v>150</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13">
         <v>1</v>
@@ -1502,19 +1640,19 @@
         <v>1</v>
       </c>
       <c r="O13">
-        <v>0.8</v>
+        <v>0.74</v>
       </c>
       <c r="Q13">
-        <v>0.8</v>
+        <v>0.74</v>
       </c>
       <c r="R13">
-        <v>0.8</v>
+        <v>0.74</v>
       </c>
       <c r="S13">
-        <v>-0.03812913936428217</v>
+        <v>-0.02091683487553216</v>
       </c>
       <c r="U13">
-        <v>0</v>
+        <v>0.09090909090909094</v>
       </c>
     </row>
     <row r="14" spans="1:21">
@@ -1534,16 +1672,16 @@
         <v>41</v>
       </c>
       <c r="F14" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="G14" t="s">
-        <v>97</v>
+        <v>141</v>
       </c>
       <c r="H14">
         <v>0.57</v>
       </c>
       <c r="I14" t="s">
-        <v>108</v>
+        <v>153</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1593,16 +1731,16 @@
         <v>41</v>
       </c>
       <c r="F15" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="G15" t="s">
-        <v>97</v>
+        <v>141</v>
       </c>
       <c r="H15">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
       <c r="I15" t="s">
-        <v>106</v>
+        <v>144</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1620,16 +1758,16 @@
         <v>1</v>
       </c>
       <c r="O15">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
       <c r="Q15">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
       <c r="R15">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
       <c r="S15">
-        <v>-0.04478031933750351</v>
+        <v>-0.0482030413087824</v>
       </c>
       <c r="U15">
         <v>0</v>
@@ -1649,19 +1787,19 @@
         <v>34</v>
       </c>
       <c r="E16" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F16" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="G16" t="s">
-        <v>98</v>
+        <v>142</v>
       </c>
       <c r="H16">
         <v>0.6899999999999999</v>
       </c>
       <c r="I16" t="s">
-        <v>102</v>
+        <v>146</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1708,25 +1846,25 @@
         <v>34</v>
       </c>
       <c r="E17" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F17" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="G17" t="s">
-        <v>98</v>
+        <v>142</v>
       </c>
       <c r="H17">
-        <v>0.74</v>
+        <v>0.79</v>
       </c>
       <c r="I17" t="s">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17">
         <v>1</v>
@@ -1738,19 +1876,19 @@
         <v>1</v>
       </c>
       <c r="O17">
-        <v>0.74</v>
+        <v>0.79</v>
       </c>
       <c r="Q17">
-        <v>0.74</v>
+        <v>0.79</v>
       </c>
       <c r="R17">
-        <v>0.74</v>
+        <v>0.79</v>
       </c>
       <c r="S17">
-        <v>-6.074367834286024E-14</v>
+        <v>-1.150509336039717E-15</v>
       </c>
       <c r="U17">
-        <v>0.09090909090909094</v>
+        <v>0.5454545454545454</v>
       </c>
     </row>
     <row r="18" spans="1:21">
@@ -1770,16 +1908,16 @@
         <v>38</v>
       </c>
       <c r="F18" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="G18" t="s">
-        <v>99</v>
+        <v>143</v>
       </c>
       <c r="H18">
         <v>0.8</v>
       </c>
       <c r="I18" t="s">
-        <v>106</v>
+        <v>147</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1829,16 +1967,16 @@
         <v>38</v>
       </c>
       <c r="F19" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="G19" t="s">
-        <v>99</v>
+        <v>143</v>
       </c>
       <c r="H19">
         <v>0.8</v>
       </c>
       <c r="I19" t="s">
-        <v>106</v>
+        <v>147</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1885,19 +2023,19 @@
         <v>34</v>
       </c>
       <c r="E20" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F20" t="s">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="G20" t="s">
-        <v>91</v>
+        <v>135</v>
       </c>
       <c r="H20">
         <v>0.79</v>
       </c>
       <c r="I20" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1944,25 +2082,25 @@
         <v>34</v>
       </c>
       <c r="E21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F21" t="s">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="G21" t="s">
-        <v>91</v>
+        <v>135</v>
       </c>
       <c r="H21">
-        <v>0.66</v>
+        <v>0.79</v>
       </c>
       <c r="I21" t="s">
-        <v>109</v>
+        <v>144</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21">
         <v>1</v>
@@ -1974,19 +2112,19 @@
         <v>1</v>
       </c>
       <c r="O21">
-        <v>0.66</v>
+        <v>0.79</v>
       </c>
       <c r="Q21">
-        <v>0.66</v>
+        <v>0.79</v>
       </c>
       <c r="R21">
-        <v>0.66</v>
+        <v>0.79</v>
       </c>
       <c r="S21">
-        <v>-0.03805</v>
+        <v>-0.04409999999999999</v>
       </c>
       <c r="U21">
-        <v>0</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="22" spans="1:21">
@@ -2003,19 +2141,19 @@
         <v>34</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="G22" t="s">
-        <v>92</v>
+        <v>136</v>
       </c>
       <c r="H22">
         <v>0.7</v>
       </c>
       <c r="I22" t="s">
-        <v>110</v>
+        <v>154</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -2062,19 +2200,19 @@
         <v>34</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="G23" t="s">
-        <v>92</v>
+        <v>136</v>
       </c>
       <c r="H23">
-        <v>0.8</v>
+        <v>0.77</v>
       </c>
       <c r="I23" t="s">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -2092,16 +2230,16 @@
         <v>1</v>
       </c>
       <c r="O23">
-        <v>0.8</v>
+        <v>0.77</v>
       </c>
       <c r="Q23">
-        <v>0.8</v>
+        <v>0.77</v>
       </c>
       <c r="R23">
-        <v>0.8</v>
+        <v>0.77</v>
       </c>
       <c r="S23">
-        <v>-0.02123375341824895</v>
+        <v>-0.1759966515472928</v>
       </c>
       <c r="U23">
         <v>0</v>
@@ -2121,19 +2259,19 @@
         <v>34</v>
       </c>
       <c r="E24" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="G24" t="s">
-        <v>93</v>
+        <v>137</v>
       </c>
       <c r="H24">
         <v>0.6899999999999999</v>
       </c>
       <c r="I24" t="s">
-        <v>102</v>
+        <v>146</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -2180,25 +2318,25 @@
         <v>34</v>
       </c>
       <c r="E25" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="G25" t="s">
-        <v>93</v>
+        <v>137</v>
       </c>
       <c r="H25">
-        <v>0.74</v>
+        <v>0.84</v>
       </c>
       <c r="I25" t="s">
-        <v>105</v>
+        <v>155</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L25">
         <v>1</v>
@@ -2210,19 +2348,19 @@
         <v>1</v>
       </c>
       <c r="O25">
-        <v>0.74</v>
+        <v>0.84</v>
       </c>
       <c r="Q25">
-        <v>0.74</v>
+        <v>0.84</v>
       </c>
       <c r="R25">
-        <v>0.74</v>
+        <v>0.84</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
       <c r="U25">
-        <v>0.09090909090909094</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="26" spans="1:21">
@@ -2239,19 +2377,19 @@
         <v>34</v>
       </c>
       <c r="E26" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="F26" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="G26" t="s">
-        <v>94</v>
+        <v>138</v>
       </c>
       <c r="H26">
         <v>0.8</v>
       </c>
       <c r="I26" t="s">
-        <v>106</v>
+        <v>147</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -2278,7 +2416,7 @@
         <v>0.8</v>
       </c>
       <c r="S26">
-        <v>-0.04392618840024334</v>
+        <v>-0.04494323709147513</v>
       </c>
       <c r="U26">
         <v>0</v>
@@ -2298,19 +2436,19 @@
         <v>34</v>
       </c>
       <c r="E27" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="F27" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="G27" t="s">
-        <v>94</v>
+        <v>138</v>
       </c>
       <c r="H27">
         <v>0.8</v>
       </c>
       <c r="I27" t="s">
-        <v>106</v>
+        <v>147</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -2337,7 +2475,7 @@
         <v>0.8</v>
       </c>
       <c r="S27">
-        <v>-0.04108297474072134</v>
+        <v>-0.04121230286688023</v>
       </c>
       <c r="U27">
         <v>0</v>
@@ -2357,19 +2495,19 @@
         <v>34</v>
       </c>
       <c r="E28" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="F28" t="s">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="G28" t="s">
-        <v>95</v>
+        <v>139</v>
       </c>
       <c r="H28">
         <v>0.76</v>
       </c>
       <c r="I28" t="s">
-        <v>101</v>
+        <v>156</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -2416,25 +2554,25 @@
         <v>34</v>
       </c>
       <c r="E29" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="F29" t="s">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="G29" t="s">
-        <v>95</v>
+        <v>139</v>
       </c>
       <c r="H29">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="I29" t="s">
-        <v>106</v>
+        <v>151</v>
       </c>
       <c r="J29">
         <v>0</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="L29">
         <v>1</v>
@@ -2446,16 +2584,16 @@
         <v>1</v>
       </c>
       <c r="O29">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="Q29">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="R29">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="S29">
-        <v>0</v>
+        <v>-0.04000000000000001</v>
       </c>
       <c r="U29">
         <v>0</v>
@@ -2475,19 +2613,19 @@
         <v>34</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F30" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="G30" t="s">
-        <v>96</v>
+        <v>140</v>
       </c>
       <c r="H30">
         <v>0.64</v>
       </c>
       <c r="I30" t="s">
-        <v>111</v>
+        <v>157</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -2534,25 +2672,25 @@
         <v>34</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F31" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="G31" t="s">
-        <v>96</v>
+        <v>140</v>
       </c>
       <c r="H31">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="I31" t="s">
-        <v>103</v>
+        <v>150</v>
       </c>
       <c r="J31">
         <v>0</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L31">
         <v>1</v>
@@ -2564,19 +2702,19 @@
         <v>1</v>
       </c>
       <c r="O31">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="Q31">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="R31">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="S31">
-        <v>-0.02673928072142395</v>
+        <v>-0.006020093013265586</v>
       </c>
       <c r="U31">
-        <v>0</v>
+        <v>-0.1904761904761905</v>
       </c>
     </row>
     <row r="32" spans="1:21">
@@ -2593,19 +2731,19 @@
         <v>34</v>
       </c>
       <c r="E32" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F32" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="G32" t="s">
-        <v>97</v>
+        <v>141</v>
       </c>
       <c r="H32">
         <v>0.65</v>
       </c>
       <c r="I32" t="s">
-        <v>112</v>
+        <v>158</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -2652,19 +2790,19 @@
         <v>34</v>
       </c>
       <c r="E33" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F33" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="G33" t="s">
-        <v>97</v>
+        <v>141</v>
       </c>
       <c r="H33">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
       <c r="I33" t="s">
-        <v>106</v>
+        <v>144</v>
       </c>
       <c r="J33">
         <v>0</v>
@@ -2682,16 +2820,16 @@
         <v>1</v>
       </c>
       <c r="O33">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
       <c r="Q33">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
       <c r="R33">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
       <c r="S33">
-        <v>-0.04149613805228373</v>
+        <v>-0.05616485581535455</v>
       </c>
       <c r="U33">
         <v>0</v>
@@ -2711,19 +2849,19 @@
         <v>34</v>
       </c>
       <c r="E34" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F34" t="s">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="G34" t="s">
-        <v>98</v>
+        <v>142</v>
       </c>
       <c r="H34">
         <v>0.7</v>
       </c>
       <c r="I34" t="s">
-        <v>110</v>
+        <v>154</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -2770,25 +2908,25 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F35" t="s">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="G35" t="s">
-        <v>98</v>
+        <v>142</v>
       </c>
       <c r="H35">
-        <v>0.7</v>
+        <v>0.76</v>
       </c>
       <c r="I35" t="s">
-        <v>110</v>
+        <v>156</v>
       </c>
       <c r="J35">
         <v>0</v>
       </c>
       <c r="K35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L35">
         <v>1</v>
@@ -2800,19 +2938,19 @@
         <v>1</v>
       </c>
       <c r="O35">
-        <v>0.7</v>
+        <v>0.76</v>
       </c>
       <c r="Q35">
-        <v>0.7</v>
+        <v>0.76</v>
       </c>
       <c r="R35">
-        <v>0.7</v>
+        <v>0.76</v>
       </c>
       <c r="S35">
-        <v>-2.858714632171284E-14</v>
+        <v>-4.452994230441981E-12</v>
       </c>
       <c r="U35">
-        <v>-0.1904761904761905</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="36" spans="1:21">
@@ -2829,19 +2967,19 @@
         <v>34</v>
       </c>
       <c r="E36" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="F36" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="G36" t="s">
-        <v>99</v>
+        <v>143</v>
       </c>
       <c r="H36">
         <v>0.8</v>
       </c>
       <c r="I36" t="s">
-        <v>106</v>
+        <v>147</v>
       </c>
       <c r="J36">
         <v>0</v>
@@ -2888,19 +3026,19 @@
         <v>34</v>
       </c>
       <c r="E37" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="F37" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="G37" t="s">
-        <v>99</v>
+        <v>143</v>
       </c>
       <c r="H37">
         <v>0.8</v>
       </c>
       <c r="I37" t="s">
-        <v>106</v>
+        <v>147</v>
       </c>
       <c r="J37">
         <v>0</v>
@@ -2947,19 +3085,19 @@
         <v>34</v>
       </c>
       <c r="E38" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F38" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="G38" t="s">
-        <v>91</v>
+        <v>135</v>
       </c>
       <c r="H38">
         <v>0.78</v>
       </c>
       <c r="I38" t="s">
-        <v>103</v>
+        <v>159</v>
       </c>
       <c r="J38">
         <v>0</v>
@@ -3006,19 +3144,19 @@
         <v>34</v>
       </c>
       <c r="E39" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F39" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="G39" t="s">
-        <v>91</v>
+        <v>135</v>
       </c>
       <c r="H39">
-        <v>0.68</v>
+        <v>0.74</v>
       </c>
       <c r="I39" t="s">
-        <v>113</v>
+        <v>150</v>
       </c>
       <c r="J39">
         <v>0</v>
@@ -3036,19 +3174,19 @@
         <v>1</v>
       </c>
       <c r="O39">
-        <v>0.68</v>
+        <v>0.74</v>
       </c>
       <c r="Q39">
-        <v>0.68</v>
+        <v>0.74</v>
       </c>
       <c r="R39">
-        <v>0.68</v>
+        <v>0.74</v>
       </c>
       <c r="S39">
-        <v>-0.0121</v>
+        <v>-0.0576</v>
       </c>
       <c r="U39">
-        <v>0.09090909090909094</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:21">
@@ -3065,19 +3203,19 @@
         <v>34</v>
       </c>
       <c r="E40" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="F40" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="G40" t="s">
-        <v>92</v>
+        <v>136</v>
       </c>
       <c r="H40">
         <v>0.75</v>
       </c>
       <c r="I40" t="s">
-        <v>114</v>
+        <v>151</v>
       </c>
       <c r="J40">
         <v>0</v>
@@ -3124,19 +3262,19 @@
         <v>34</v>
       </c>
       <c r="E41" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="F41" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="G41" t="s">
-        <v>92</v>
+        <v>136</v>
       </c>
       <c r="H41">
         <v>0.8</v>
       </c>
       <c r="I41" t="s">
-        <v>106</v>
+        <v>147</v>
       </c>
       <c r="J41">
         <v>0</v>
@@ -3163,7 +3301,7 @@
         <v>0.8</v>
       </c>
       <c r="S41">
-        <v>-0.03626104078641717</v>
+        <v>-0.03626340334710584</v>
       </c>
       <c r="U41">
         <v>0</v>
@@ -3183,19 +3321,19 @@
         <v>34</v>
       </c>
       <c r="E42" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F42" t="s">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="G42" t="s">
-        <v>93</v>
+        <v>137</v>
       </c>
       <c r="H42">
         <v>0.65</v>
       </c>
       <c r="I42" t="s">
-        <v>112</v>
+        <v>158</v>
       </c>
       <c r="J42">
         <v>0</v>
@@ -3242,19 +3380,19 @@
         <v>34</v>
       </c>
       <c r="E43" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F43" t="s">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="G43" t="s">
-        <v>93</v>
+        <v>137</v>
       </c>
       <c r="H43">
-        <v>0.65</v>
+        <v>0.73</v>
       </c>
       <c r="I43" t="s">
-        <v>112</v>
+        <v>160</v>
       </c>
       <c r="J43">
         <v>0</v>
@@ -3272,19 +3410,19 @@
         <v>1</v>
       </c>
       <c r="O43">
-        <v>0.65</v>
+        <v>0.73</v>
       </c>
       <c r="Q43">
-        <v>0.65</v>
+        <v>0.73</v>
       </c>
       <c r="R43">
-        <v>0.65</v>
+        <v>0.73</v>
       </c>
       <c r="S43">
         <v>0</v>
       </c>
       <c r="U43">
-        <v>0</v>
+        <v>0.5833333333333333</v>
       </c>
     </row>
     <row r="44" spans="1:21">
@@ -3301,19 +3439,19 @@
         <v>34</v>
       </c>
       <c r="E44" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="F44" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="G44" t="s">
-        <v>94</v>
+        <v>138</v>
       </c>
       <c r="H44">
         <v>0.8</v>
       </c>
       <c r="I44" t="s">
-        <v>106</v>
+        <v>147</v>
       </c>
       <c r="J44">
         <v>0</v>
@@ -3340,7 +3478,7 @@
         <v>0.8</v>
       </c>
       <c r="S44">
-        <v>-0.05805187872600971</v>
+        <v>-0.05176141207636713</v>
       </c>
       <c r="U44">
         <v>0</v>
@@ -3360,19 +3498,19 @@
         <v>34</v>
       </c>
       <c r="E45" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="F45" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="G45" t="s">
-        <v>94</v>
+        <v>138</v>
       </c>
       <c r="H45">
         <v>0.8</v>
       </c>
       <c r="I45" t="s">
-        <v>106</v>
+        <v>147</v>
       </c>
       <c r="J45">
         <v>0</v>
@@ -3399,7 +3537,7 @@
         <v>0.8</v>
       </c>
       <c r="S45">
-        <v>-0.0410829682957643</v>
+        <v>-0.04226123703243042</v>
       </c>
       <c r="U45">
         <v>0</v>
@@ -3419,19 +3557,19 @@
         <v>34</v>
       </c>
       <c r="E46" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="F46" t="s">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="G46" t="s">
-        <v>95</v>
+        <v>139</v>
       </c>
       <c r="H46">
         <v>0.79</v>
       </c>
       <c r="I46" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="J46">
         <v>0</v>
@@ -3478,19 +3616,19 @@
         <v>34</v>
       </c>
       <c r="E47" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="F47" t="s">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="G47" t="s">
-        <v>95</v>
+        <v>139</v>
       </c>
       <c r="H47">
-        <v>0.8</v>
+        <v>0.78</v>
       </c>
       <c r="I47" t="s">
-        <v>106</v>
+        <v>159</v>
       </c>
       <c r="J47">
         <v>0</v>
@@ -3508,16 +3646,16 @@
         <v>1</v>
       </c>
       <c r="O47">
-        <v>0.8</v>
+        <v>0.78</v>
       </c>
       <c r="Q47">
-        <v>0.8</v>
+        <v>0.78</v>
       </c>
       <c r="R47">
-        <v>0.8</v>
+        <v>0.78</v>
       </c>
       <c r="S47">
-        <v>0</v>
+        <v>-0.04000000000000001</v>
       </c>
       <c r="U47">
         <v>0</v>
@@ -3537,19 +3675,19 @@
         <v>34</v>
       </c>
       <c r="E48" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="F48" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="G48" t="s">
-        <v>96</v>
+        <v>140</v>
       </c>
       <c r="H48">
         <v>0.62</v>
       </c>
       <c r="I48" t="s">
-        <v>107</v>
+        <v>152</v>
       </c>
       <c r="J48">
         <v>0</v>
@@ -3596,19 +3734,19 @@
         <v>34</v>
       </c>
       <c r="E49" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="F49" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="G49" t="s">
-        <v>96</v>
+        <v>140</v>
       </c>
       <c r="H49">
-        <v>0.8</v>
+        <v>0.77</v>
       </c>
       <c r="I49" t="s">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="J49">
         <v>0</v>
@@ -3626,16 +3764,16 @@
         <v>1</v>
       </c>
       <c r="O49">
-        <v>0.8</v>
+        <v>0.77</v>
       </c>
       <c r="Q49">
-        <v>0.8</v>
+        <v>0.77</v>
       </c>
       <c r="R49">
-        <v>0.8</v>
+        <v>0.77</v>
       </c>
       <c r="S49">
-        <v>-0.03572721898169123</v>
+        <v>-0.07021664665832365</v>
       </c>
       <c r="U49">
         <v>0</v>
@@ -3655,19 +3793,19 @@
         <v>34</v>
       </c>
       <c r="E50" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="F50" t="s">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="G50" t="s">
-        <v>97</v>
+        <v>141</v>
       </c>
       <c r="H50">
         <v>0.62</v>
       </c>
       <c r="I50" t="s">
-        <v>107</v>
+        <v>152</v>
       </c>
       <c r="J50">
         <v>0</v>
@@ -3714,19 +3852,19 @@
         <v>34</v>
       </c>
       <c r="E51" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="F51" t="s">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="G51" t="s">
-        <v>97</v>
+        <v>141</v>
       </c>
       <c r="H51">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
       <c r="I51" t="s">
-        <v>106</v>
+        <v>144</v>
       </c>
       <c r="J51">
         <v>0</v>
@@ -3744,16 +3882,16 @@
         <v>1</v>
       </c>
       <c r="O51">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
       <c r="Q51">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
       <c r="R51">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
       <c r="S51">
-        <v>-0.04113887388486265</v>
+        <v>-0.05407537829858403</v>
       </c>
       <c r="U51">
         <v>0</v>
@@ -3773,19 +3911,19 @@
         <v>34</v>
       </c>
       <c r="E52" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="F52" t="s">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="G52" t="s">
-        <v>98</v>
+        <v>142</v>
       </c>
       <c r="H52">
         <v>0.7</v>
       </c>
       <c r="I52" t="s">
-        <v>110</v>
+        <v>154</v>
       </c>
       <c r="J52">
         <v>0</v>
@@ -3832,25 +3970,25 @@
         <v>34</v>
       </c>
       <c r="E53" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="F53" t="s">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="G53" t="s">
-        <v>98</v>
+        <v>142</v>
       </c>
       <c r="H53">
-        <v>0.65</v>
+        <v>0.75</v>
       </c>
       <c r="I53" t="s">
-        <v>112</v>
+        <v>151</v>
       </c>
       <c r="J53">
         <v>0</v>
       </c>
       <c r="K53">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="L53">
         <v>1</v>
@@ -3862,19 +4000,19 @@
         <v>1</v>
       </c>
       <c r="O53">
-        <v>0.65</v>
+        <v>0.75</v>
       </c>
       <c r="Q53">
-        <v>0.65</v>
+        <v>0.75</v>
       </c>
       <c r="R53">
-        <v>0.65</v>
+        <v>0.75</v>
       </c>
       <c r="S53">
-        <v>-1.657179971604957E-13</v>
+        <v>-1.527944250349204E-12</v>
       </c>
       <c r="U53">
-        <v>0</v>
+        <v>0.3478260869565217</v>
       </c>
     </row>
     <row r="54" spans="1:21">
@@ -3891,19 +4029,19 @@
         <v>34</v>
       </c>
       <c r="E54" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="F54" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="G54" t="s">
-        <v>99</v>
+        <v>143</v>
       </c>
       <c r="H54">
         <v>0.8</v>
       </c>
       <c r="I54" t="s">
-        <v>106</v>
+        <v>147</v>
       </c>
       <c r="J54">
         <v>0</v>
@@ -3950,19 +4088,19 @@
         <v>34</v>
       </c>
       <c r="E55" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="F55" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="G55" t="s">
-        <v>99</v>
+        <v>143</v>
       </c>
       <c r="H55">
         <v>0.8</v>
       </c>
       <c r="I55" t="s">
-        <v>106</v>
+        <v>147</v>
       </c>
       <c r="J55">
         <v>0</v>
@@ -4009,19 +4147,19 @@
         <v>34</v>
       </c>
       <c r="E56" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="F56" t="s">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="G56" t="s">
-        <v>91</v>
+        <v>135</v>
       </c>
       <c r="H56">
         <v>0.76</v>
       </c>
       <c r="I56" t="s">
-        <v>101</v>
+        <v>156</v>
       </c>
       <c r="J56">
         <v>0</v>
@@ -4068,25 +4206,25 @@
         <v>34</v>
       </c>
       <c r="E57" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="F57" t="s">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="G57" t="s">
-        <v>91</v>
+        <v>135</v>
       </c>
       <c r="H57">
-        <v>0.68</v>
+        <v>0.75</v>
       </c>
       <c r="I57" t="s">
-        <v>113</v>
+        <v>151</v>
       </c>
       <c r="J57">
         <v>0</v>
       </c>
       <c r="K57">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="L57">
         <v>1</v>
@@ -4098,19 +4236,19 @@
         <v>1</v>
       </c>
       <c r="O57">
-        <v>0.68</v>
+        <v>0.75</v>
       </c>
       <c r="Q57">
-        <v>0.68</v>
+        <v>0.75</v>
       </c>
       <c r="R57">
-        <v>0.68</v>
+        <v>0.75</v>
       </c>
       <c r="S57">
-        <v>-0.0121</v>
+        <v>-0.03425</v>
       </c>
       <c r="U57">
-        <v>0.09090909090909094</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="58" spans="1:21">
@@ -4127,19 +4265,19 @@
         <v>34</v>
       </c>
       <c r="E58" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="F58" t="s">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="G58" t="s">
-        <v>92</v>
+        <v>136</v>
       </c>
       <c r="H58">
         <v>0.77</v>
       </c>
       <c r="I58" t="s">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="J58">
         <v>0</v>
@@ -4186,25 +4324,25 @@
         <v>34</v>
       </c>
       <c r="E59" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="F59" t="s">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="G59" t="s">
-        <v>92</v>
+        <v>136</v>
       </c>
       <c r="H59">
-        <v>0.79</v>
+        <v>0.75</v>
       </c>
       <c r="I59" t="s">
-        <v>100</v>
+        <v>151</v>
       </c>
       <c r="J59">
         <v>0</v>
       </c>
       <c r="K59">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="L59">
         <v>1</v>
@@ -4216,16 +4354,16 @@
         <v>1</v>
       </c>
       <c r="O59">
-        <v>0.79</v>
+        <v>0.75</v>
       </c>
       <c r="Q59">
-        <v>0.79</v>
+        <v>0.75</v>
       </c>
       <c r="R59">
-        <v>0.79</v>
+        <v>0.75</v>
       </c>
       <c r="S59">
-        <v>-0.04156595167189119</v>
+        <v>-0.02497308970656857</v>
       </c>
       <c r="U59">
         <v>0</v>
@@ -4245,19 +4383,19 @@
         <v>34</v>
       </c>
       <c r="E60" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="F60" t="s">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="G60" t="s">
-        <v>93</v>
+        <v>137</v>
       </c>
       <c r="H60">
         <v>0.71</v>
       </c>
       <c r="I60" t="s">
-        <v>116</v>
+        <v>161</v>
       </c>
       <c r="J60">
         <v>0</v>
@@ -4304,19 +4442,19 @@
         <v>34</v>
       </c>
       <c r="E61" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="F61" t="s">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="G61" t="s">
-        <v>93</v>
+        <v>137</v>
       </c>
       <c r="H61">
-        <v>0.65</v>
+        <v>0.74</v>
       </c>
       <c r="I61" t="s">
-        <v>112</v>
+        <v>150</v>
       </c>
       <c r="J61">
         <v>0</v>
@@ -4334,19 +4472,19 @@
         <v>1</v>
       </c>
       <c r="O61">
-        <v>0.65</v>
+        <v>0.74</v>
       </c>
       <c r="Q61">
-        <v>0.65</v>
+        <v>0.74</v>
       </c>
       <c r="R61">
-        <v>0.65</v>
+        <v>0.74</v>
       </c>
       <c r="S61">
         <v>0</v>
       </c>
       <c r="U61">
-        <v>0</v>
+        <v>0.7826086956521738</v>
       </c>
     </row>
     <row r="62" spans="1:21">
@@ -4363,19 +4501,19 @@
         <v>34</v>
       </c>
       <c r="E62" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="F62" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="G62" t="s">
-        <v>94</v>
+        <v>138</v>
       </c>
       <c r="H62">
         <v>0.8</v>
       </c>
       <c r="I62" t="s">
-        <v>106</v>
+        <v>147</v>
       </c>
       <c r="J62">
         <v>0</v>
@@ -4402,7 +4540,7 @@
         <v>0.8</v>
       </c>
       <c r="S62">
-        <v>-0.04276238546326902</v>
+        <v>-0.042849751772797</v>
       </c>
       <c r="U62">
         <v>0</v>
@@ -4422,19 +4560,19 @@
         <v>34</v>
       </c>
       <c r="E63" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="F63" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="G63" t="s">
-        <v>94</v>
+        <v>138</v>
       </c>
       <c r="H63">
         <v>0.8</v>
       </c>
       <c r="I63" t="s">
-        <v>106</v>
+        <v>147</v>
       </c>
       <c r="J63">
         <v>0</v>
@@ -4461,7 +4599,7 @@
         <v>0.8</v>
       </c>
       <c r="S63">
-        <v>-0.04108297394731553</v>
+        <v>-0.04124207493034834</v>
       </c>
       <c r="U63">
         <v>0</v>
@@ -4481,19 +4619,19 @@
         <v>34</v>
       </c>
       <c r="E64" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="F64" t="s">
-        <v>73</v>
+        <v>112</v>
       </c>
       <c r="G64" t="s">
-        <v>95</v>
+        <v>139</v>
       </c>
       <c r="H64">
         <v>0.79</v>
       </c>
       <c r="I64" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="J64">
         <v>0</v>
@@ -4540,19 +4678,19 @@
         <v>34</v>
       </c>
       <c r="E65" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="F65" t="s">
-        <v>73</v>
+        <v>112</v>
       </c>
       <c r="G65" t="s">
-        <v>95</v>
+        <v>139</v>
       </c>
       <c r="H65">
-        <v>0.79</v>
+        <v>0.77</v>
       </c>
       <c r="I65" t="s">
-        <v>100</v>
+        <v>145</v>
       </c>
       <c r="J65">
         <v>0</v>
@@ -4570,13 +4708,13 @@
         <v>1</v>
       </c>
       <c r="O65">
-        <v>0.79</v>
+        <v>0.77</v>
       </c>
       <c r="Q65">
-        <v>0.79</v>
+        <v>0.77</v>
       </c>
       <c r="R65">
-        <v>0.79</v>
+        <v>0.77</v>
       </c>
       <c r="S65">
         <v>-0.04000000000000001</v>
@@ -4599,19 +4737,19 @@
         <v>34</v>
       </c>
       <c r="E66" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="F66" t="s">
-        <v>75</v>
+        <v>113</v>
       </c>
       <c r="G66" t="s">
-        <v>96</v>
+        <v>140</v>
       </c>
       <c r="H66">
         <v>0.72</v>
       </c>
       <c r="I66" t="s">
-        <v>117</v>
+        <v>162</v>
       </c>
       <c r="J66">
         <v>0</v>
@@ -4658,25 +4796,25 @@
         <v>34</v>
       </c>
       <c r="E67" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="F67" t="s">
-        <v>75</v>
+        <v>113</v>
       </c>
       <c r="G67" t="s">
-        <v>96</v>
+        <v>140</v>
       </c>
       <c r="H67">
-        <v>0.8</v>
+        <v>0.74</v>
       </c>
       <c r="I67" t="s">
-        <v>106</v>
+        <v>150</v>
       </c>
       <c r="J67">
         <v>0</v>
       </c>
       <c r="K67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L67">
         <v>1</v>
@@ -4688,19 +4826,19 @@
         <v>1</v>
       </c>
       <c r="O67">
-        <v>0.8</v>
+        <v>0.74</v>
       </c>
       <c r="Q67">
-        <v>0.8</v>
+        <v>0.74</v>
       </c>
       <c r="R67">
-        <v>0.8</v>
+        <v>0.74</v>
       </c>
       <c r="S67">
-        <v>-0.03489011806032645</v>
+        <v>-0.007277455314881042</v>
       </c>
       <c r="U67">
-        <v>0</v>
+        <v>0.09090909090909094</v>
       </c>
     </row>
     <row r="68" spans="1:21">
@@ -4717,19 +4855,19 @@
         <v>34</v>
       </c>
       <c r="E68" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="F68" t="s">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="G68" t="s">
-        <v>97</v>
+        <v>141</v>
       </c>
       <c r="H68">
         <v>0.66</v>
       </c>
       <c r="I68" t="s">
-        <v>109</v>
+        <v>163</v>
       </c>
       <c r="J68">
         <v>0</v>
@@ -4776,25 +4914,25 @@
         <v>34</v>
       </c>
       <c r="E69" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="F69" t="s">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="G69" t="s">
-        <v>97</v>
+        <v>141</v>
       </c>
       <c r="H69">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="I69" t="s">
-        <v>106</v>
+        <v>151</v>
       </c>
       <c r="J69">
         <v>0</v>
       </c>
       <c r="K69">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="L69">
         <v>1</v>
@@ -4806,16 +4944,16 @@
         <v>1</v>
       </c>
       <c r="O69">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="Q69">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="R69">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="S69">
-        <v>-0.03997894784391878</v>
+        <v>-0.04039935074527766</v>
       </c>
       <c r="U69">
         <v>0</v>
@@ -4835,19 +4973,19 @@
         <v>34</v>
       </c>
       <c r="E70" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="F70" t="s">
-        <v>63</v>
+        <v>115</v>
       </c>
       <c r="G70" t="s">
-        <v>98</v>
+        <v>142</v>
       </c>
       <c r="H70">
         <v>0.71</v>
       </c>
       <c r="I70" t="s">
-        <v>116</v>
+        <v>161</v>
       </c>
       <c r="J70">
         <v>0</v>
@@ -4894,19 +5032,19 @@
         <v>34</v>
       </c>
       <c r="E71" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="F71" t="s">
-        <v>63</v>
+        <v>115</v>
       </c>
       <c r="G71" t="s">
-        <v>98</v>
+        <v>142</v>
       </c>
       <c r="H71">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="I71" t="s">
-        <v>116</v>
+        <v>160</v>
       </c>
       <c r="J71">
         <v>0</v>
@@ -4924,16 +5062,16 @@
         <v>1</v>
       </c>
       <c r="O71">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="Q71">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="R71">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="S71">
-        <v>-9.418160608238006E-15</v>
+        <v>-5.357541333828569E-12</v>
       </c>
       <c r="U71">
         <v>-0.1904761904761905</v>
@@ -4953,19 +5091,19 @@
         <v>34</v>
       </c>
       <c r="E72" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="F72" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="G72" t="s">
-        <v>99</v>
+        <v>143</v>
       </c>
       <c r="H72">
         <v>0.8</v>
       </c>
       <c r="I72" t="s">
-        <v>106</v>
+        <v>147</v>
       </c>
       <c r="J72">
         <v>0</v>
@@ -5012,19 +5150,19 @@
         <v>34</v>
       </c>
       <c r="E73" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="F73" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="G73" t="s">
-        <v>99</v>
+        <v>143</v>
       </c>
       <c r="H73">
         <v>0.8</v>
       </c>
       <c r="I73" t="s">
-        <v>106</v>
+        <v>147</v>
       </c>
       <c r="J73">
         <v>0</v>
@@ -5071,19 +5209,19 @@
         <v>34</v>
       </c>
       <c r="E74" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="F74" t="s">
-        <v>75</v>
+        <v>116</v>
       </c>
       <c r="G74" t="s">
-        <v>91</v>
+        <v>135</v>
       </c>
       <c r="H74">
         <v>0.77</v>
       </c>
       <c r="I74" t="s">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="J74">
         <v>0</v>
@@ -5130,25 +5268,25 @@
         <v>34</v>
       </c>
       <c r="E75" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="F75" t="s">
-        <v>75</v>
+        <v>116</v>
       </c>
       <c r="G75" t="s">
-        <v>91</v>
+        <v>135</v>
       </c>
       <c r="H75">
-        <v>0.66</v>
+        <v>0.8</v>
       </c>
       <c r="I75" t="s">
-        <v>109</v>
+        <v>147</v>
       </c>
       <c r="J75">
         <v>0</v>
       </c>
       <c r="K75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L75">
         <v>1</v>
@@ -5160,19 +5298,19 @@
         <v>1</v>
       </c>
       <c r="O75">
-        <v>0.66</v>
+        <v>0.8</v>
       </c>
       <c r="Q75">
-        <v>0.66</v>
+        <v>0.8</v>
       </c>
       <c r="R75">
-        <v>0.66</v>
+        <v>0.8</v>
       </c>
       <c r="S75">
-        <v>-0.02525</v>
+        <v>-0.0576</v>
       </c>
       <c r="U75">
-        <v>0.09090909090909094</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="76" spans="1:21">
@@ -5189,19 +5327,19 @@
         <v>34</v>
       </c>
       <c r="E76" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="F76" t="s">
-        <v>82</v>
+        <v>117</v>
       </c>
       <c r="G76" t="s">
-        <v>92</v>
+        <v>136</v>
       </c>
       <c r="H76">
         <v>0.76</v>
       </c>
       <c r="I76" t="s">
-        <v>101</v>
+        <v>156</v>
       </c>
       <c r="J76">
         <v>0</v>
@@ -5248,25 +5386,25 @@
         <v>34</v>
       </c>
       <c r="E77" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="F77" t="s">
-        <v>82</v>
+        <v>117</v>
       </c>
       <c r="G77" t="s">
-        <v>92</v>
+        <v>136</v>
       </c>
       <c r="H77">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="I77" t="s">
-        <v>106</v>
+        <v>151</v>
       </c>
       <c r="J77">
         <v>0</v>
       </c>
       <c r="K77">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="L77">
         <v>1</v>
@@ -5278,16 +5416,16 @@
         <v>1</v>
       </c>
       <c r="O77">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="Q77">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="R77">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="S77">
-        <v>-0.04085779754111085</v>
+        <v>-0.0236976145779605</v>
       </c>
       <c r="U77">
         <v>0</v>
@@ -5307,19 +5445,19 @@
         <v>34</v>
       </c>
       <c r="E78" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="F78" t="s">
-        <v>70</v>
+        <v>118</v>
       </c>
       <c r="G78" t="s">
-        <v>93</v>
+        <v>137</v>
       </c>
       <c r="H78">
         <v>0.57</v>
       </c>
       <c r="I78" t="s">
-        <v>108</v>
+        <v>153</v>
       </c>
       <c r="J78">
         <v>0</v>
@@ -5366,19 +5504,19 @@
         <v>34</v>
       </c>
       <c r="E79" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="F79" t="s">
-        <v>70</v>
+        <v>118</v>
       </c>
       <c r="G79" t="s">
-        <v>93</v>
+        <v>137</v>
       </c>
       <c r="H79">
-        <v>0.6899999999999999</v>
+        <v>0.72</v>
       </c>
       <c r="I79" t="s">
-        <v>102</v>
+        <v>162</v>
       </c>
       <c r="J79">
         <v>0</v>
@@ -5396,19 +5534,19 @@
         <v>1</v>
       </c>
       <c r="O79">
-        <v>0.6899999999999999</v>
+        <v>0.72</v>
       </c>
       <c r="Q79">
-        <v>0.6899999999999999</v>
+        <v>0.72</v>
       </c>
       <c r="R79">
-        <v>0.6899999999999999</v>
+        <v>0.72</v>
       </c>
       <c r="S79">
         <v>0</v>
       </c>
       <c r="U79">
-        <v>0.09090909090909094</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="80" spans="1:21">
@@ -5425,19 +5563,19 @@
         <v>34</v>
       </c>
       <c r="E80" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="F80" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="G80" t="s">
-        <v>94</v>
+        <v>138</v>
       </c>
       <c r="H80">
         <v>0.8</v>
       </c>
       <c r="I80" t="s">
-        <v>106</v>
+        <v>147</v>
       </c>
       <c r="J80">
         <v>0</v>
@@ -5464,7 +5602,7 @@
         <v>0.8</v>
       </c>
       <c r="S80">
-        <v>-0.04791551793207776</v>
+        <v>-0.04670333299397218</v>
       </c>
       <c r="U80">
         <v>0</v>
@@ -5484,19 +5622,19 @@
         <v>34</v>
       </c>
       <c r="E81" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="F81" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="G81" t="s">
-        <v>94</v>
+        <v>138</v>
       </c>
       <c r="H81">
         <v>0.8</v>
       </c>
       <c r="I81" t="s">
-        <v>106</v>
+        <v>147</v>
       </c>
       <c r="J81">
         <v>0</v>
@@ -5523,7 +5661,7 @@
         <v>0.8</v>
       </c>
       <c r="S81">
-        <v>-0.04108297196043884</v>
+        <v>-0.04206732550999882</v>
       </c>
       <c r="U81">
         <v>0</v>
@@ -5543,19 +5681,19 @@
         <v>34</v>
       </c>
       <c r="E82" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="F82" t="s">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="G82" t="s">
-        <v>95</v>
+        <v>139</v>
       </c>
       <c r="H82">
         <v>0.78</v>
       </c>
       <c r="I82" t="s">
-        <v>103</v>
+        <v>159</v>
       </c>
       <c r="J82">
         <v>0</v>
@@ -5602,19 +5740,19 @@
         <v>34</v>
       </c>
       <c r="E83" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="F83" t="s">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="G83" t="s">
-        <v>95</v>
+        <v>139</v>
       </c>
       <c r="H83">
         <v>0.79</v>
       </c>
       <c r="I83" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="J83">
         <v>0</v>
@@ -5661,19 +5799,19 @@
         <v>34</v>
       </c>
       <c r="E84" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="F84" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="G84" t="s">
-        <v>96</v>
+        <v>140</v>
       </c>
       <c r="H84">
         <v>0.63</v>
       </c>
       <c r="I84" t="s">
-        <v>118</v>
+        <v>164</v>
       </c>
       <c r="J84">
         <v>0</v>
@@ -5720,19 +5858,19 @@
         <v>34</v>
       </c>
       <c r="E85" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="F85" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="G85" t="s">
-        <v>96</v>
+        <v>140</v>
       </c>
       <c r="H85">
         <v>0.8</v>
       </c>
       <c r="I85" t="s">
-        <v>106</v>
+        <v>147</v>
       </c>
       <c r="J85">
         <v>0</v>
@@ -5759,10 +5897,10 @@
         <v>0.8</v>
       </c>
       <c r="S85">
-        <v>-0.03572721898169123</v>
+        <v>-0.04713941218647291</v>
       </c>
       <c r="U85">
-        <v>0</v>
+        <v>-0.3999999999999999</v>
       </c>
     </row>
     <row r="86" spans="1:21">
@@ -5779,19 +5917,19 @@
         <v>34</v>
       </c>
       <c r="E86" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="F86" t="s">
-        <v>84</v>
+        <v>120</v>
       </c>
       <c r="G86" t="s">
-        <v>97</v>
+        <v>141</v>
       </c>
       <c r="H86">
         <v>0.62</v>
       </c>
       <c r="I86" t="s">
-        <v>107</v>
+        <v>152</v>
       </c>
       <c r="J86">
         <v>0</v>
@@ -5838,19 +5976,19 @@
         <v>34</v>
       </c>
       <c r="E87" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="F87" t="s">
-        <v>84</v>
+        <v>120</v>
       </c>
       <c r="G87" t="s">
-        <v>97</v>
+        <v>141</v>
       </c>
       <c r="H87">
-        <v>0.8</v>
+        <v>0.77</v>
       </c>
       <c r="I87" t="s">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="J87">
         <v>0</v>
@@ -5868,16 +6006,16 @@
         <v>1</v>
       </c>
       <c r="O87">
-        <v>0.8</v>
+        <v>0.77</v>
       </c>
       <c r="Q87">
-        <v>0.8</v>
+        <v>0.77</v>
       </c>
       <c r="R87">
-        <v>0.8</v>
+        <v>0.77</v>
       </c>
       <c r="S87">
-        <v>-0.04020862124646338</v>
+        <v>-0.04209194229213191</v>
       </c>
       <c r="U87">
         <v>0</v>
@@ -5897,19 +6035,19 @@
         <v>34</v>
       </c>
       <c r="E88" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="F88" t="s">
-        <v>75</v>
+        <v>121</v>
       </c>
       <c r="G88" t="s">
-        <v>98</v>
+        <v>142</v>
       </c>
       <c r="H88">
         <v>0.77</v>
       </c>
       <c r="I88" t="s">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="J88">
         <v>0</v>
@@ -5956,25 +6094,25 @@
         <v>34</v>
       </c>
       <c r="E89" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="F89" t="s">
-        <v>75</v>
+        <v>121</v>
       </c>
       <c r="G89" t="s">
-        <v>98</v>
+        <v>142</v>
       </c>
       <c r="H89">
-        <v>0.66</v>
+        <v>0.76</v>
       </c>
       <c r="I89" t="s">
-        <v>109</v>
+        <v>156</v>
       </c>
       <c r="J89">
         <v>0</v>
       </c>
       <c r="K89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L89">
         <v>1</v>
@@ -5986,19 +6124,19 @@
         <v>1</v>
       </c>
       <c r="O89">
-        <v>0.66</v>
+        <v>0.76</v>
       </c>
       <c r="Q89">
-        <v>0.66</v>
+        <v>0.76</v>
       </c>
       <c r="R89">
-        <v>0.66</v>
+        <v>0.76</v>
       </c>
       <c r="S89">
-        <v>-4.406853887711167E-13</v>
+        <v>-4.954095465770856E-12</v>
       </c>
       <c r="U89">
-        <v>0.09090909090909094</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:21">
@@ -6015,19 +6153,19 @@
         <v>34</v>
       </c>
       <c r="E90" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="F90" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="G90" t="s">
-        <v>99</v>
+        <v>143</v>
       </c>
       <c r="H90">
         <v>0.8</v>
       </c>
       <c r="I90" t="s">
-        <v>106</v>
+        <v>147</v>
       </c>
       <c r="J90">
         <v>0</v>
@@ -6074,19 +6212,19 @@
         <v>34</v>
       </c>
       <c r="E91" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="F91" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="G91" t="s">
-        <v>99</v>
+        <v>143</v>
       </c>
       <c r="H91">
         <v>0.8</v>
       </c>
       <c r="I91" t="s">
-        <v>106</v>
+        <v>147</v>
       </c>
       <c r="J91">
         <v>0</v>
@@ -6133,19 +6271,19 @@
         <v>34</v>
       </c>
       <c r="E92" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="F92" t="s">
-        <v>85</v>
+        <v>122</v>
       </c>
       <c r="G92" t="s">
-        <v>91</v>
+        <v>135</v>
       </c>
       <c r="H92">
         <v>0.78</v>
       </c>
       <c r="I92" t="s">
-        <v>103</v>
+        <v>159</v>
       </c>
       <c r="J92">
         <v>0</v>
@@ -6192,25 +6330,25 @@
         <v>34</v>
       </c>
       <c r="E93" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="F93" t="s">
-        <v>85</v>
+        <v>122</v>
       </c>
       <c r="G93" t="s">
-        <v>91</v>
+        <v>135</v>
       </c>
       <c r="H93">
-        <v>0.68</v>
+        <v>0.76</v>
       </c>
       <c r="I93" t="s">
-        <v>113</v>
+        <v>156</v>
       </c>
       <c r="J93">
         <v>0</v>
       </c>
       <c r="K93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L93">
         <v>1</v>
@@ -6222,19 +6360,19 @@
         <v>1</v>
       </c>
       <c r="O93">
-        <v>0.68</v>
+        <v>0.76</v>
       </c>
       <c r="Q93">
-        <v>0.68</v>
+        <v>0.76</v>
       </c>
       <c r="R93">
-        <v>0.68</v>
+        <v>0.76</v>
       </c>
       <c r="S93">
-        <v>-0.0064</v>
+        <v>-0.06005</v>
       </c>
       <c r="U93">
-        <v>0.3478260869565217</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="94" spans="1:21">
@@ -6251,19 +6389,19 @@
         <v>34</v>
       </c>
       <c r="E94" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="F94" t="s">
-        <v>80</v>
+        <v>123</v>
       </c>
       <c r="G94" t="s">
-        <v>92</v>
+        <v>136</v>
       </c>
       <c r="H94">
         <v>0.8</v>
       </c>
       <c r="I94" t="s">
-        <v>106</v>
+        <v>147</v>
       </c>
       <c r="J94">
         <v>0</v>
@@ -6310,25 +6448,25 @@
         <v>34</v>
       </c>
       <c r="E95" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="F95" t="s">
-        <v>80</v>
+        <v>123</v>
       </c>
       <c r="G95" t="s">
-        <v>92</v>
+        <v>136</v>
       </c>
       <c r="H95">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="I95" t="s">
-        <v>106</v>
+        <v>151</v>
       </c>
       <c r="J95">
         <v>0</v>
       </c>
       <c r="K95">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="L95">
         <v>1</v>
@@ -6340,16 +6478,16 @@
         <v>1</v>
       </c>
       <c r="O95">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="Q95">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="R95">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="S95">
-        <v>-0.04085018057975358</v>
+        <v>-0.0367167986890058</v>
       </c>
       <c r="U95">
         <v>0</v>
@@ -6369,19 +6507,19 @@
         <v>34</v>
       </c>
       <c r="E96" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="F96" t="s">
-        <v>73</v>
+        <v>124</v>
       </c>
       <c r="G96" t="s">
-        <v>93</v>
+        <v>137</v>
       </c>
       <c r="H96">
         <v>0.64</v>
       </c>
       <c r="I96" t="s">
-        <v>111</v>
+        <v>157</v>
       </c>
       <c r="J96">
         <v>0</v>
@@ -6428,19 +6566,19 @@
         <v>34</v>
       </c>
       <c r="E97" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="F97" t="s">
-        <v>73</v>
+        <v>124</v>
       </c>
       <c r="G97" t="s">
-        <v>93</v>
+        <v>137</v>
       </c>
       <c r="H97">
-        <v>0.6899999999999999</v>
+        <v>0.68</v>
       </c>
       <c r="I97" t="s">
-        <v>102</v>
+        <v>165</v>
       </c>
       <c r="J97">
         <v>0</v>
@@ -6458,19 +6596,19 @@
         <v>1</v>
       </c>
       <c r="O97">
-        <v>0.6899999999999999</v>
+        <v>0.68</v>
       </c>
       <c r="Q97">
-        <v>0.6899999999999999</v>
+        <v>0.68</v>
       </c>
       <c r="R97">
-        <v>0.6899999999999999</v>
+        <v>0.68</v>
       </c>
       <c r="S97">
         <v>0</v>
       </c>
       <c r="U97">
-        <v>0.09090909090909094</v>
+        <v>0.5454545454545454</v>
       </c>
     </row>
     <row r="98" spans="1:21">
@@ -6487,19 +6625,19 @@
         <v>34</v>
       </c>
       <c r="E98" t="s">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="F98" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="G98" t="s">
-        <v>94</v>
+        <v>138</v>
       </c>
       <c r="H98">
         <v>0.8</v>
       </c>
       <c r="I98" t="s">
-        <v>106</v>
+        <v>147</v>
       </c>
       <c r="J98">
         <v>0</v>
@@ -6526,7 +6664,7 @@
         <v>0.8</v>
       </c>
       <c r="S98">
-        <v>-0.04595366569042149</v>
+        <v>-0.04655666266162097</v>
       </c>
       <c r="U98">
         <v>0</v>
@@ -6546,19 +6684,19 @@
         <v>34</v>
       </c>
       <c r="E99" t="s">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="F99" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="G99" t="s">
-        <v>94</v>
+        <v>138</v>
       </c>
       <c r="H99">
         <v>0.8</v>
       </c>
       <c r="I99" t="s">
-        <v>106</v>
+        <v>147</v>
       </c>
       <c r="J99">
         <v>0</v>
@@ -6585,7 +6723,7 @@
         <v>0.8</v>
       </c>
       <c r="S99">
-        <v>-0.04108296880194012</v>
+        <v>-0.04213694462708627</v>
       </c>
       <c r="U99">
         <v>0</v>
@@ -6605,19 +6743,19 @@
         <v>34</v>
       </c>
       <c r="E100" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="F100" t="s">
-        <v>83</v>
+        <v>125</v>
       </c>
       <c r="G100" t="s">
-        <v>95</v>
+        <v>139</v>
       </c>
       <c r="H100">
         <v>0.79</v>
       </c>
       <c r="I100" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="J100">
         <v>0</v>
@@ -6664,19 +6802,19 @@
         <v>34</v>
       </c>
       <c r="E101" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="F101" t="s">
-        <v>83</v>
+        <v>125</v>
       </c>
       <c r="G101" t="s">
-        <v>95</v>
+        <v>139</v>
       </c>
       <c r="H101">
         <v>0.79</v>
       </c>
       <c r="I101" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="J101">
         <v>0</v>
@@ -6723,19 +6861,19 @@
         <v>34</v>
       </c>
       <c r="E102" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="F102" t="s">
-        <v>75</v>
+        <v>126</v>
       </c>
       <c r="G102" t="s">
-        <v>96</v>
+        <v>140</v>
       </c>
       <c r="H102">
         <v>0.62</v>
       </c>
       <c r="I102" t="s">
-        <v>107</v>
+        <v>152</v>
       </c>
       <c r="J102">
         <v>0</v>
@@ -6782,25 +6920,25 @@
         <v>34</v>
       </c>
       <c r="E103" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="F103" t="s">
-        <v>75</v>
+        <v>126</v>
       </c>
       <c r="G103" t="s">
-        <v>96</v>
+        <v>140</v>
       </c>
       <c r="H103">
-        <v>0.77</v>
+        <v>0.67</v>
       </c>
       <c r="I103" t="s">
-        <v>115</v>
+        <v>166</v>
       </c>
       <c r="J103">
         <v>0</v>
       </c>
       <c r="K103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L103">
         <v>1</v>
@@ -6812,19 +6950,19 @@
         <v>1</v>
       </c>
       <c r="O103">
-        <v>0.77</v>
+        <v>0.67</v>
       </c>
       <c r="Q103">
-        <v>0.77</v>
+        <v>0.67</v>
       </c>
       <c r="R103">
-        <v>0.77</v>
+        <v>0.67</v>
       </c>
       <c r="S103">
-        <v>-0.03366734496460042</v>
+        <v>-0.09501647427667692</v>
       </c>
       <c r="U103">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="104" spans="1:21">
@@ -6841,19 +6979,19 @@
         <v>34</v>
       </c>
       <c r="E104" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="F104" t="s">
-        <v>86</v>
+        <v>127</v>
       </c>
       <c r="G104" t="s">
-        <v>97</v>
+        <v>141</v>
       </c>
       <c r="H104">
         <v>0.67</v>
       </c>
       <c r="I104" t="s">
-        <v>119</v>
+        <v>166</v>
       </c>
       <c r="J104">
         <v>0</v>
@@ -6900,19 +7038,19 @@
         <v>34</v>
       </c>
       <c r="E105" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="F105" t="s">
-        <v>86</v>
+        <v>127</v>
       </c>
       <c r="G105" t="s">
-        <v>97</v>
+        <v>141</v>
       </c>
       <c r="H105">
-        <v>0.8</v>
+        <v>0.77</v>
       </c>
       <c r="I105" t="s">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="J105">
         <v>0</v>
@@ -6930,16 +7068,16 @@
         <v>1</v>
       </c>
       <c r="O105">
-        <v>0.8</v>
+        <v>0.77</v>
       </c>
       <c r="Q105">
-        <v>0.8</v>
+        <v>0.77</v>
       </c>
       <c r="R105">
-        <v>0.8</v>
+        <v>0.77</v>
       </c>
       <c r="S105">
-        <v>-0.03922581204593626</v>
+        <v>-0.04768914578190708</v>
       </c>
       <c r="U105">
         <v>0</v>
@@ -6959,19 +7097,19 @@
         <v>34</v>
       </c>
       <c r="E106" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="F106" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="G106" t="s">
-        <v>98</v>
+        <v>142</v>
       </c>
       <c r="H106">
         <v>0.74</v>
       </c>
       <c r="I106" t="s">
-        <v>105</v>
+        <v>150</v>
       </c>
       <c r="J106">
         <v>0</v>
@@ -7018,25 +7156,25 @@
         <v>34</v>
       </c>
       <c r="E107" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="F107" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="G107" t="s">
-        <v>98</v>
+        <v>142</v>
       </c>
       <c r="H107">
-        <v>0.6899999999999999</v>
+        <v>0.78</v>
       </c>
       <c r="I107" t="s">
-        <v>102</v>
+        <v>159</v>
       </c>
       <c r="J107">
         <v>0</v>
       </c>
       <c r="K107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L107">
         <v>1</v>
@@ -7048,19 +7186,19 @@
         <v>1</v>
       </c>
       <c r="O107">
-        <v>0.6899999999999999</v>
+        <v>0.78</v>
       </c>
       <c r="Q107">
-        <v>0.6899999999999999</v>
+        <v>0.78</v>
       </c>
       <c r="R107">
-        <v>0.6899999999999999</v>
+        <v>0.78</v>
       </c>
       <c r="S107">
-        <v>-1.407178674720686E-13</v>
+        <v>-1.841286219287991E-12</v>
       </c>
       <c r="U107">
-        <v>0.09090909090909094</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:21">
@@ -7077,19 +7215,19 @@
         <v>34</v>
       </c>
       <c r="E108" t="s">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="F108" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="G108" t="s">
-        <v>99</v>
+        <v>143</v>
       </c>
       <c r="H108">
         <v>0.8</v>
       </c>
       <c r="I108" t="s">
-        <v>106</v>
+        <v>147</v>
       </c>
       <c r="J108">
         <v>0</v>
@@ -7136,19 +7274,19 @@
         <v>34</v>
       </c>
       <c r="E109" t="s">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="F109" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="G109" t="s">
-        <v>99</v>
+        <v>143</v>
       </c>
       <c r="H109">
         <v>0.8</v>
       </c>
       <c r="I109" t="s">
-        <v>106</v>
+        <v>147</v>
       </c>
       <c r="J109">
         <v>0</v>
@@ -7195,19 +7333,19 @@
         <v>34</v>
       </c>
       <c r="E110" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="F110" t="s">
-        <v>87</v>
+        <v>129</v>
       </c>
       <c r="G110" t="s">
-        <v>91</v>
+        <v>135</v>
       </c>
       <c r="H110">
         <v>0.77</v>
       </c>
       <c r="I110" t="s">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="J110">
         <v>0</v>
@@ -7254,25 +7392,25 @@
         <v>34</v>
       </c>
       <c r="E111" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="F111" t="s">
-        <v>87</v>
+        <v>129</v>
       </c>
       <c r="G111" t="s">
-        <v>91</v>
+        <v>135</v>
       </c>
       <c r="H111">
-        <v>0.68</v>
+        <v>0.79</v>
       </c>
       <c r="I111" t="s">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="J111">
         <v>0</v>
       </c>
       <c r="K111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L111">
         <v>1</v>
@@ -7284,19 +7422,19 @@
         <v>1</v>
       </c>
       <c r="O111">
-        <v>0.68</v>
+        <v>0.79</v>
       </c>
       <c r="Q111">
-        <v>0.68</v>
+        <v>0.79</v>
       </c>
       <c r="R111">
-        <v>0.68</v>
+        <v>0.79</v>
       </c>
       <c r="S111">
-        <v>-0.009050000000000001</v>
+        <v>-0.06760000000000001</v>
       </c>
       <c r="U111">
-        <v>-0.3636363636363635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:21">
@@ -7313,19 +7451,19 @@
         <v>34</v>
       </c>
       <c r="E112" t="s">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="F112" t="s">
-        <v>88</v>
+        <v>130</v>
       </c>
       <c r="G112" t="s">
-        <v>92</v>
+        <v>136</v>
       </c>
       <c r="H112">
         <v>0.75</v>
       </c>
       <c r="I112" t="s">
-        <v>114</v>
+        <v>151</v>
       </c>
       <c r="J112">
         <v>0</v>
@@ -7372,19 +7510,19 @@
         <v>34</v>
       </c>
       <c r="E113" t="s">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="F113" t="s">
-        <v>88</v>
+        <v>130</v>
       </c>
       <c r="G113" t="s">
-        <v>92</v>
+        <v>136</v>
       </c>
       <c r="H113">
-        <v>0.79</v>
+        <v>0.78</v>
       </c>
       <c r="I113" t="s">
-        <v>100</v>
+        <v>159</v>
       </c>
       <c r="J113">
         <v>0</v>
@@ -7402,16 +7540,16 @@
         <v>1</v>
       </c>
       <c r="O113">
-        <v>0.79</v>
+        <v>0.78</v>
       </c>
       <c r="Q113">
-        <v>0.79</v>
+        <v>0.78</v>
       </c>
       <c r="R113">
-        <v>0.79</v>
+        <v>0.78</v>
       </c>
       <c r="S113">
-        <v>-0.04156595167189119</v>
+        <v>-0.02491863875278806</v>
       </c>
       <c r="U113">
         <v>0</v>
@@ -7431,19 +7569,19 @@
         <v>34</v>
       </c>
       <c r="E114" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="F114" t="s">
-        <v>89</v>
+        <v>131</v>
       </c>
       <c r="G114" t="s">
-        <v>93</v>
+        <v>137</v>
       </c>
       <c r="H114">
         <v>0.68</v>
       </c>
       <c r="I114" t="s">
-        <v>113</v>
+        <v>165</v>
       </c>
       <c r="J114">
         <v>0</v>
@@ -7490,19 +7628,19 @@
         <v>34</v>
       </c>
       <c r="E115" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="F115" t="s">
-        <v>89</v>
+        <v>131</v>
       </c>
       <c r="G115" t="s">
-        <v>93</v>
+        <v>137</v>
       </c>
       <c r="H115">
-        <v>0.6899999999999999</v>
+        <v>0.73</v>
       </c>
       <c r="I115" t="s">
-        <v>102</v>
+        <v>160</v>
       </c>
       <c r="J115">
         <v>0</v>
@@ -7520,13 +7658,13 @@
         <v>1</v>
       </c>
       <c r="O115">
-        <v>0.6899999999999999</v>
+        <v>0.73</v>
       </c>
       <c r="Q115">
-        <v>0.6899999999999999</v>
+        <v>0.73</v>
       </c>
       <c r="R115">
-        <v>0.6899999999999999</v>
+        <v>0.73</v>
       </c>
       <c r="S115">
         <v>0</v>
@@ -7549,19 +7687,19 @@
         <v>34</v>
       </c>
       <c r="E116" t="s">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="F116" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="G116" t="s">
-        <v>94</v>
+        <v>138</v>
       </c>
       <c r="H116">
         <v>0.8</v>
       </c>
       <c r="I116" t="s">
-        <v>106</v>
+        <v>147</v>
       </c>
       <c r="J116">
         <v>0</v>
@@ -7588,7 +7726,7 @@
         <v>0.8</v>
       </c>
       <c r="S116">
-        <v>-0.0409853940405081</v>
+        <v>-0.04132403127879383</v>
       </c>
       <c r="U116">
         <v>0</v>
@@ -7608,19 +7746,19 @@
         <v>34</v>
       </c>
       <c r="E117" t="s">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="F117" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="G117" t="s">
-        <v>94</v>
+        <v>138</v>
       </c>
       <c r="H117">
         <v>0.8</v>
       </c>
       <c r="I117" t="s">
-        <v>106</v>
+        <v>147</v>
       </c>
       <c r="J117">
         <v>0</v>
@@ -7647,7 +7785,7 @@
         <v>0.8</v>
       </c>
       <c r="S117">
-        <v>-0.04108297431209335</v>
+        <v>-0.04075027428524516</v>
       </c>
       <c r="U117">
         <v>0</v>
@@ -7667,19 +7805,19 @@
         <v>34</v>
       </c>
       <c r="E118" t="s">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="F118" t="s">
-        <v>76</v>
+        <v>132</v>
       </c>
       <c r="G118" t="s">
-        <v>95</v>
+        <v>139</v>
       </c>
       <c r="H118">
         <v>0.79</v>
       </c>
       <c r="I118" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="J118">
         <v>0</v>
@@ -7726,19 +7864,19 @@
         <v>34</v>
       </c>
       <c r="E119" t="s">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="F119" t="s">
-        <v>76</v>
+        <v>132</v>
       </c>
       <c r="G119" t="s">
-        <v>95</v>
+        <v>139</v>
       </c>
       <c r="H119">
-        <v>0.8</v>
+        <v>0.78</v>
       </c>
       <c r="I119" t="s">
-        <v>106</v>
+        <v>159</v>
       </c>
       <c r="J119">
         <v>0</v>
@@ -7756,16 +7894,16 @@
         <v>1</v>
       </c>
       <c r="O119">
-        <v>0.8</v>
+        <v>0.78</v>
       </c>
       <c r="Q119">
-        <v>0.8</v>
+        <v>0.78</v>
       </c>
       <c r="R119">
-        <v>0.8</v>
+        <v>0.78</v>
       </c>
       <c r="S119">
-        <v>0</v>
+        <v>-0.04000000000000001</v>
       </c>
       <c r="U119">
         <v>0</v>
@@ -7785,19 +7923,19 @@
         <v>34</v>
       </c>
       <c r="E120" t="s">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="F120" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="G120" t="s">
-        <v>96</v>
+        <v>140</v>
       </c>
       <c r="H120">
         <v>0.5600000000000001</v>
       </c>
       <c r="I120" t="s">
-        <v>120</v>
+        <v>167</v>
       </c>
       <c r="J120">
         <v>0</v>
@@ -7844,25 +7982,25 @@
         <v>34</v>
       </c>
       <c r="E121" t="s">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="F121" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="G121" t="s">
-        <v>96</v>
+        <v>140</v>
       </c>
       <c r="H121">
-        <v>0.8</v>
+        <v>0.71</v>
       </c>
       <c r="I121" t="s">
-        <v>106</v>
+        <v>161</v>
       </c>
       <c r="J121">
         <v>0</v>
       </c>
       <c r="K121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L121">
         <v>1</v>
@@ -7874,16 +8012,16 @@
         <v>1</v>
       </c>
       <c r="O121">
-        <v>0.8</v>
+        <v>0.71</v>
       </c>
       <c r="Q121">
-        <v>0.8</v>
+        <v>0.71</v>
       </c>
       <c r="R121">
-        <v>0.8</v>
+        <v>0.71</v>
       </c>
       <c r="S121">
-        <v>-0.03572721898169123</v>
+        <v>-0.05766574906782043</v>
       </c>
       <c r="U121">
         <v>0</v>
@@ -7903,19 +8041,19 @@
         <v>34</v>
       </c>
       <c r="E122" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="F122" t="s">
-        <v>75</v>
+        <v>133</v>
       </c>
       <c r="G122" t="s">
-        <v>97</v>
+        <v>141</v>
       </c>
       <c r="H122">
         <v>0.63</v>
       </c>
       <c r="I122" t="s">
-        <v>118</v>
+        <v>164</v>
       </c>
       <c r="J122">
         <v>0</v>
@@ -7962,19 +8100,19 @@
         <v>34</v>
       </c>
       <c r="E123" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="F123" t="s">
-        <v>75</v>
+        <v>133</v>
       </c>
       <c r="G123" t="s">
-        <v>97</v>
+        <v>141</v>
       </c>
       <c r="H123">
-        <v>0.8</v>
+        <v>0.77</v>
       </c>
       <c r="I123" t="s">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="J123">
         <v>0</v>
@@ -7992,19 +8130,19 @@
         <v>1</v>
       </c>
       <c r="O123">
-        <v>0.8</v>
+        <v>0.77</v>
       </c>
       <c r="Q123">
-        <v>0.8</v>
+        <v>0.77</v>
       </c>
       <c r="R123">
-        <v>0.8</v>
+        <v>0.77</v>
       </c>
       <c r="S123">
-        <v>-0.03890211135508601</v>
+        <v>-0.03878208011046978</v>
       </c>
       <c r="U123">
-        <v>0</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="124" spans="1:21">
@@ -8021,19 +8159,19 @@
         <v>34</v>
       </c>
       <c r="E124" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="F124" t="s">
-        <v>90</v>
+        <v>134</v>
       </c>
       <c r="G124" t="s">
-        <v>98</v>
+        <v>142</v>
       </c>
       <c r="H124">
         <v>0.73</v>
       </c>
       <c r="I124" t="s">
-        <v>121</v>
+        <v>160</v>
       </c>
       <c r="J124">
         <v>0</v>
@@ -8080,19 +8218,19 @@
         <v>34</v>
       </c>
       <c r="E125" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="F125" t="s">
-        <v>90</v>
+        <v>134</v>
       </c>
       <c r="G125" t="s">
-        <v>98</v>
+        <v>142</v>
       </c>
       <c r="H125">
         <v>0.68</v>
       </c>
       <c r="I125" t="s">
-        <v>113</v>
+        <v>165</v>
       </c>
       <c r="J125">
         <v>0</v>
@@ -8119,10 +8257,10 @@
         <v>0.68</v>
       </c>
       <c r="S125">
-        <v>-8.562420198418659E-15</v>
+        <v>-1.336501860943438E-07</v>
       </c>
       <c r="U125">
-        <v>-0.3636363636363635</v>
+        <v>0.09090909090909094</v>
       </c>
     </row>
     <row r="126" spans="1:21">
@@ -8139,19 +8277,19 @@
         <v>34</v>
       </c>
       <c r="E126" t="s">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="F126" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="G126" t="s">
-        <v>99</v>
+        <v>143</v>
       </c>
       <c r="H126">
         <v>0.8</v>
       </c>
       <c r="I126" t="s">
-        <v>106</v>
+        <v>147</v>
       </c>
       <c r="J126">
         <v>0</v>
@@ -8198,19 +8336,19 @@
         <v>34</v>
       </c>
       <c r="E127" t="s">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="F127" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="G127" t="s">
-        <v>99</v>
+        <v>143</v>
       </c>
       <c r="H127">
         <v>0.8</v>
       </c>
       <c r="I127" t="s">
-        <v>106</v>
+        <v>147</v>
       </c>
       <c r="J127">
         <v>0</v>
